--- a/FinanciaApplication/Test/proteinFINAL.xlsx
+++ b/FinanciaApplication/Test/proteinFINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandru.vesa\Desktop\Research\New_Personal_Program_DL_Programming\GitMy\my-work\FinanciaApplication\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84A344A-4307-44A8-8C65-4AE9D5C42A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F450A65-12D8-4C25-9989-E260BCBFAF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1A-Bilant" sheetId="1" r:id="rId1"/>
@@ -3461,10 +3461,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3472,44 +3502,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3529,23 +3538,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="36" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3572,60 +3572,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="40" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="40" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="40" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="40" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3650,35 +3650,35 @@
     <xf numFmtId="0" fontId="39" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="40" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5439,7 +5439,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="349"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="253" t="s">
         <v>491</v>
       </c>
@@ -5460,8 +5460,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5726,48 +5726,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="346" t="s">
         <v>492</v>
       </c>
       <c r="B1" s="395"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="397" t="s">
+      <c r="A3" s="396" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="368"/>
-      <c r="G3" s="368"/>
-      <c r="H3" s="368"/>
-      <c r="I3" s="368"/>
-      <c r="J3" s="368"/>
-      <c r="K3" s="368"/>
-      <c r="L3" s="368"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="378"/>
+      <c r="F3" s="378"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="378"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="378"/>
     </row>
     <row r="4" spans="1:12" s="270" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="396" t="s">
+      <c r="A4" s="397" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="396" t="s">
+      <c r="B4" s="397" t="s">
         <v>495</v>
       </c>
-      <c r="C4" s="393" t="s">
+      <c r="C4" s="399" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="325"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="337"/>
     </row>
     <row r="5" spans="1:12" s="270" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="345"/>
-      <c r="B5" s="345"/>
+      <c r="A5" s="348"/>
+      <c r="B5" s="348"/>
       <c r="C5" s="269" t="s">
         <v>361</v>
       </c>
@@ -5782,14 +5782,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="398" t="s">
+      <c r="A6" s="400" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="324"/>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="325"/>
+      <c r="B6" s="326"/>
+      <c r="C6" s="326"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="337"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -5798,10 +5798,10 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="365" t="s">
+      <c r="A7" s="367" t="s">
         <v>422</v>
       </c>
-      <c r="B7" s="325"/>
+      <c r="B7" s="337"/>
       <c r="C7" s="127"/>
       <c r="D7" s="127"/>
       <c r="E7" s="127"/>
@@ -5975,10 +5975,10 @@
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="392" t="s">
+      <c r="A14" s="398" t="s">
         <v>502</v>
       </c>
-      <c r="B14" s="325"/>
+      <c r="B14" s="337"/>
       <c r="C14" s="164">
         <f>C8+C9+C12+C13</f>
         <v>202294.43999999997</v>
@@ -6003,10 +6003,10 @@
       <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="365" t="s">
+      <c r="A15" s="367" t="s">
         <v>427</v>
       </c>
-      <c r="B15" s="325"/>
+      <c r="B15" s="337"/>
       <c r="C15" s="164"/>
       <c r="D15" s="164"/>
       <c r="E15" s="164"/>
@@ -6156,10 +6156,10 @@
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="392" t="s">
+      <c r="A21" s="398" t="s">
         <v>508</v>
       </c>
-      <c r="B21" s="325"/>
+      <c r="B21" s="337"/>
       <c r="C21" s="164">
         <f>C16+C20+C19</f>
         <v>102165</v>
@@ -6178,10 +6178,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="392" t="s">
+      <c r="A22" s="398" t="s">
         <v>509</v>
       </c>
-      <c r="B22" s="325"/>
+      <c r="B22" s="337"/>
       <c r="C22" s="164">
         <f>C14-C21</f>
         <v>100129.43999999997</v>
@@ -6203,11 +6203,11 @@
       <c r="A23" s="366" t="s">
         <v>510</v>
       </c>
-      <c r="B23" s="324"/>
-      <c r="C23" s="324"/>
-      <c r="D23" s="324"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="325"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="326"/>
+      <c r="D23" s="326"/>
+      <c r="E23" s="326"/>
+      <c r="F23" s="337"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -6216,10 +6216,10 @@
       <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="365" t="s">
+      <c r="A24" s="367" t="s">
         <v>511</v>
       </c>
-      <c r="B24" s="325"/>
+      <c r="B24" s="337"/>
       <c r="C24" s="127"/>
       <c r="D24" s="127"/>
       <c r="E24" s="127"/>
@@ -6258,10 +6258,10 @@
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="392" t="s">
+      <c r="A26" s="398" t="s">
         <v>513</v>
       </c>
-      <c r="B26" s="325"/>
+      <c r="B26" s="337"/>
       <c r="C26" s="127">
         <f>C25</f>
         <v>0</v>
@@ -6289,7 +6289,7 @@
       <c r="A27" s="366" t="s">
         <v>514</v>
       </c>
-      <c r="B27" s="325"/>
+      <c r="B27" s="337"/>
       <c r="C27" s="127"/>
       <c r="D27" s="127"/>
       <c r="E27" s="127"/>
@@ -6381,10 +6381,10 @@
       <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="392" t="s">
+      <c r="A31" s="398" t="s">
         <v>516</v>
       </c>
-      <c r="B31" s="325"/>
+      <c r="B31" s="337"/>
       <c r="C31" s="164">
         <f>SUM(C28:C30)</f>
         <v>434974.61</v>
@@ -6409,10 +6409,10 @@
       <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="392" t="s">
+      <c r="A32" s="398" t="s">
         <v>517</v>
       </c>
-      <c r="B32" s="325"/>
+      <c r="B32" s="337"/>
       <c r="C32" s="164">
         <f>C26-C31</f>
         <v>-434974.61</v>
@@ -6437,10 +6437,10 @@
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="392" t="s">
+      <c r="A33" s="398" t="s">
         <v>518</v>
       </c>
-      <c r="B33" s="325"/>
+      <c r="B33" s="337"/>
       <c r="C33" s="164">
         <f>C32+C22</f>
         <v>-334845.17000000004</v>
@@ -6468,11 +6468,11 @@
       <c r="A34" s="366" t="s">
         <v>441</v>
       </c>
-      <c r="B34" s="324"/>
-      <c r="C34" s="324"/>
-      <c r="D34" s="324"/>
-      <c r="E34" s="324"/>
-      <c r="F34" s="325"/>
+      <c r="B34" s="326"/>
+      <c r="C34" s="326"/>
+      <c r="D34" s="326"/>
+      <c r="E34" s="326"/>
+      <c r="F34" s="337"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -6509,15 +6509,15 @@
       </c>
       <c r="D36" s="128">
         <f>D37+D40+D43+D46+D49+D52</f>
-        <v>4389664.2142107999</v>
+        <v>4381165.3483555997</v>
       </c>
       <c r="E36" s="128">
         <f>E37+E40+E43+E46+E49+E52</f>
-        <v>4525667.4467199994</v>
+        <v>4517157.3541668002</v>
       </c>
       <c r="F36" s="128">
         <f>F37+F40+F43+F46+F49+F52</f>
-        <v>4610811.804703258</v>
+        <v>4602159.110601359</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -6711,15 +6711,15 @@
       </c>
       <c r="D43" s="227">
         <f>D44+D45</f>
-        <v>4379092.4922107998</v>
+        <v>4370614.0943556</v>
       </c>
       <c r="E43" s="227">
         <f>E44+E45</f>
-        <v>4514746.8578939997</v>
+        <v>4506268.4600387998</v>
       </c>
       <c r="F43" s="227">
         <f>F44+F45</f>
-        <v>4599530.8364460003</v>
+        <v>4591052.4385907995</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -6739,15 +6739,15 @@
       </c>
       <c r="D44" s="126">
         <f>'3A-Proiectii_fin_investitie'!E73/1.19</f>
-        <v>3679909.6573200002</v>
+        <v>3672784.9532400002</v>
       </c>
       <c r="E44" s="126">
         <f>'3A-Proiectii_fin_investitie'!F73/1.19</f>
-        <v>3793904.9225999997</v>
+        <v>3786780.2185200001</v>
       </c>
       <c r="F44" s="126">
         <f>'3A-Proiectii_fin_investitie'!G73/1.19</f>
-        <v>3865151.9633999998</v>
+        <v>3858027.2593199997</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -6767,15 +6767,15 @@
       </c>
       <c r="D45" s="126">
         <f>D44*0.19</f>
-        <v>699182.83489080006</v>
+        <v>697829.14111560001</v>
       </c>
       <c r="E45" s="126">
         <f>E44*0.19</f>
-        <v>720841.93529399997</v>
+        <v>719488.24151880003</v>
       </c>
       <c r="F45" s="126">
         <f>F44*0.19</f>
-        <v>734378.87304600002</v>
+        <v>733025.17927079997</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -6958,15 +6958,15 @@
       </c>
       <c r="D52" s="165">
         <f>D53+D54</f>
-        <v>10571.722</v>
+        <v>10551.254000000001</v>
       </c>
       <c r="E52" s="165">
-        <f t="shared" ref="D52:F52" si="0">E53+E54</f>
-        <v>10920.588825999999</v>
+        <f t="shared" ref="E52:F52" si="0">E53+E54</f>
+        <v>10888.894128</v>
       </c>
       <c r="F52" s="165">
         <f t="shared" si="0"/>
-        <v>11280.968257257999</v>
+        <v>11106.67201056</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6979,16 +6979,16 @@
         <v>8600</v>
       </c>
       <c r="D53" s="126">
-        <f>C53*0.033 +C53</f>
-        <v>8883.7999999999993</v>
+        <f>C53*0.031 +C53</f>
+        <v>8866.6</v>
       </c>
       <c r="E53" s="126">
-        <f t="shared" ref="E53:F53" si="1">D53*0.033 +D53</f>
-        <v>9176.9653999999991</v>
+        <f>D53*0.032 +D53</f>
+        <v>9150.3312000000005</v>
       </c>
       <c r="F53" s="126">
-        <f t="shared" si="1"/>
-        <v>9479.8052581999982</v>
+        <f>E53*0.02 +E53</f>
+        <v>9333.3378240000002</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
@@ -7008,15 +7008,15 @@
       </c>
       <c r="D54" s="126">
         <f>D53*0.19</f>
-        <v>1687.9219999999998</v>
+        <v>1684.654</v>
       </c>
       <c r="E54" s="126">
         <f>E53*0.19</f>
-        <v>1743.6234259999999</v>
+        <v>1738.5629280000001</v>
       </c>
       <c r="F54" s="126">
         <f>F53*0.19</f>
-        <v>1801.1629990579997</v>
+        <v>1773.33418656</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -7034,19 +7034,19 @@
       </c>
       <c r="C55" s="128">
         <f>C56+C57+C58+C59</f>
-        <v>103094</v>
+        <v>9993</v>
       </c>
       <c r="D55" s="128">
         <f>D56+D57+D58+D59</f>
-        <v>113370.40000000001</v>
+        <v>10959.300000000001</v>
       </c>
       <c r="E55" s="128">
         <f>E56+E57+E58+E59</f>
-        <v>124707.44000000002</v>
+        <v>12055.230000000001</v>
       </c>
       <c r="F55" s="128">
         <f>F56+F57+F58+F59</f>
-        <v>137178.18400000004</v>
+        <v>13260.753000000002</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -7117,20 +7117,20 @@
         <v>545</v>
       </c>
       <c r="C58" s="126">
-        <f>'1B-ContPP'!C51</f>
-        <v>103064</v>
+        <f>'1B-ContPP'!C32</f>
+        <v>9963</v>
       </c>
       <c r="D58" s="126">
-        <f t="shared" ref="D58:F59" si="2">C58*1.1</f>
-        <v>113370.40000000001</v>
+        <f t="shared" ref="D58:F59" si="1">C58*1.1</f>
+        <v>10959.300000000001</v>
       </c>
       <c r="E58" s="126">
-        <f t="shared" si="2"/>
-        <v>124707.44000000002</v>
+        <f t="shared" si="1"/>
+        <v>12055.230000000001</v>
       </c>
       <c r="F58" s="126">
-        <f t="shared" si="2"/>
-        <v>137178.18400000004</v>
+        <f t="shared" si="1"/>
+        <v>13260.753000000002</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -7151,15 +7151,15 @@
         <v>0</v>
       </c>
       <c r="D59" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E59" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F59" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G59" s="16"/>
@@ -7170,25 +7170,25 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="392" t="s">
+      <c r="A60" s="398" t="s">
         <v>548</v>
       </c>
-      <c r="B60" s="325"/>
+      <c r="B60" s="337"/>
       <c r="C60" s="164">
         <f>C55+C36</f>
-        <v>4352526.9276000001</v>
+        <v>4259425.9276000001</v>
       </c>
       <c r="D60" s="164">
         <f>D55+D36</f>
-        <v>4503034.6142108003</v>
+        <v>4392124.6483555995</v>
       </c>
       <c r="E60" s="164">
         <f>E55+E36</f>
-        <v>4650374.8867199998</v>
+        <v>4529212.5841668006</v>
       </c>
       <c r="F60" s="164">
         <f>F55+F36</f>
-        <v>4747989.9887032583</v>
+        <v>4615419.8636013586</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -7839,10 +7839,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="392" t="s">
+      <c r="A86" s="398" t="s">
         <v>568</v>
       </c>
-      <c r="B86" s="325"/>
+      <c r="B86" s="337"/>
       <c r="C86" s="164">
         <f>C62+C80</f>
         <v>3659386.4905624995</v>
@@ -7867,25 +7867,25 @@
       <c r="L86" s="16"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="392" t="s">
+      <c r="A87" s="398" t="s">
         <v>569</v>
       </c>
-      <c r="B87" s="325"/>
+      <c r="B87" s="337"/>
       <c r="C87" s="164">
         <f>C60-C86</f>
-        <v>693140.43703750055</v>
+        <v>600039.43703750055</v>
       </c>
       <c r="D87" s="164">
         <f>D60-D86</f>
-        <v>911607.25366922561</v>
+        <v>800697.28781402484</v>
       </c>
       <c r="E87" s="164">
         <f>E60-E86</f>
-        <v>1037589.3564993492</v>
+        <v>916427.05394615</v>
       </c>
       <c r="F87" s="164">
         <f>F60-F86</f>
-        <v>1113846.2888035332</v>
+        <v>981276.16370163346</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
@@ -7895,25 +7895,25 @@
       <c r="L87" s="16"/>
     </row>
     <row r="88" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="392" t="s">
+      <c r="A88" s="398" t="s">
         <v>570</v>
       </c>
-      <c r="B88" s="325"/>
+      <c r="B88" s="337"/>
       <c r="C88" s="164">
         <f>C33+C87</f>
-        <v>358295.26703750051</v>
+        <v>265194.26703750051</v>
       </c>
       <c r="D88" s="164">
         <f>D33+D87</f>
-        <v>911607.25366922561</v>
+        <v>800697.28781402484</v>
       </c>
       <c r="E88" s="164">
         <f>E33+E87</f>
-        <v>1037589.3564993492</v>
+        <v>916427.05394615</v>
       </c>
       <c r="F88" s="164">
         <f>F33+F87</f>
-        <v>1113846.2888035332</v>
+        <v>981276.16370163346</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
@@ -7935,15 +7935,15 @@
       </c>
       <c r="D89" s="126">
         <f>D39 + D42 +D45  + D51+D54 + D48 - D28*19/119 - D65-D68-D71-D74-D79</f>
-        <v>394033.31279285008</v>
+        <v>392676.35101764998</v>
       </c>
       <c r="E89" s="126">
         <f>E39 + E42 +E45  + E51+E54 + E48 - E28*19/119 - E65-E68-E71-E74-E79</f>
-        <v>414386.54777409998</v>
+        <v>413027.79350090004</v>
       </c>
       <c r="F89" s="126">
         <f>F39 + F42 +F45  + F51+F54 + F48 - F28*19/119 - F65-F68-F71-F74-F79</f>
-        <v>426619.45825120807</v>
+        <v>425237.93566351</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
@@ -8005,25 +8005,25 @@
       <c r="L91" s="16"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="392" t="s">
+      <c r="A92" s="398" t="s">
         <v>572</v>
       </c>
-      <c r="B92" s="325"/>
+      <c r="B92" s="337"/>
       <c r="C92" s="164">
         <f>C89-C90+C91</f>
         <v>214678.14100294118</v>
       </c>
       <c r="D92" s="164">
         <f>D89-D90+D91</f>
-        <v>394033.31279285008</v>
+        <v>392676.35101764998</v>
       </c>
       <c r="E92" s="164">
         <f>E89-E90+E91</f>
-        <v>414386.54777409998</v>
+        <v>413027.79350090004</v>
       </c>
       <c r="F92" s="164">
         <f>F89-F90+F91</f>
-        <v>426619.45825120807</v>
+        <v>425237.93566351</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
@@ -8033,10 +8033,10 @@
       <c r="L92" s="16"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="392" t="s">
+      <c r="A93" s="398" t="s">
         <v>518</v>
       </c>
-      <c r="B93" s="325"/>
+      <c r="B93" s="337"/>
       <c r="C93" s="164">
         <f>C33</f>
         <v>-334845.17000000004</v>
@@ -8061,25 +8061,25 @@
       <c r="L93" s="16"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="392" t="s">
+      <c r="A94" s="398" t="s">
         <v>573</v>
       </c>
-      <c r="B94" s="325"/>
+      <c r="B94" s="337"/>
       <c r="C94" s="164">
         <f>C87-C92</f>
-        <v>478462.29603455937</v>
+        <v>385361.29603455937</v>
       </c>
       <c r="D94" s="164">
         <f>D87-D92</f>
-        <v>517573.94087637553</v>
+        <v>408020.93679637485</v>
       </c>
       <c r="E94" s="164">
         <f>E87-E92</f>
-        <v>623202.80872524926</v>
+        <v>503399.26044524997</v>
       </c>
       <c r="F94" s="164">
         <f>F87-F92</f>
-        <v>687226.83055232512</v>
+        <v>556038.22803812346</v>
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
@@ -8092,11 +8092,11 @@
       <c r="A95" s="366" t="s">
         <v>574</v>
       </c>
-      <c r="B95" s="324"/>
-      <c r="C95" s="324"/>
-      <c r="D95" s="324"/>
-      <c r="E95" s="324"/>
-      <c r="F95" s="325"/>
+      <c r="B95" s="326"/>
+      <c r="C95" s="326"/>
+      <c r="D95" s="326"/>
+      <c r="E95" s="326"/>
+      <c r="F95" s="337"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
@@ -8105,25 +8105,25 @@
       <c r="L95" s="16"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="392" t="s">
+      <c r="A96" s="398" t="s">
         <v>575</v>
       </c>
-      <c r="B96" s="325"/>
+      <c r="B96" s="337"/>
       <c r="C96" s="164">
         <f>C93+C94</f>
-        <v>143617.12603455933</v>
+        <v>50516.126034559333</v>
       </c>
       <c r="D96" s="164">
         <f>D93+D94</f>
-        <v>517573.94087637553</v>
+        <v>408020.93679637485</v>
       </c>
       <c r="E96" s="164">
         <f>E93+E94</f>
-        <v>623202.80872524926</v>
+        <v>503399.26044524997</v>
       </c>
       <c r="F96" s="164">
         <f>F93+F94</f>
-        <v>687226.83055232512</v>
+        <v>556038.22803812346</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
@@ -8133,25 +8133,25 @@
       <c r="L96" s="16"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="392" t="s">
+      <c r="A97" s="398" t="s">
         <v>410</v>
       </c>
-      <c r="B97" s="325"/>
+      <c r="B97" s="337"/>
       <c r="C97" s="164">
         <f>'1A-Bilant'!C28</f>
         <v>32762</v>
       </c>
       <c r="D97" s="164">
         <f>C98</f>
-        <v>176379.12603455933</v>
+        <v>83278.126034559333</v>
       </c>
       <c r="E97" s="164">
         <f>D98</f>
-        <v>693953.06691093487</v>
+        <v>491299.06283093418</v>
       </c>
       <c r="F97" s="164">
         <f>E98</f>
-        <v>1317155.8756361841</v>
+        <v>994698.32327618415</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
@@ -8161,25 +8161,25 @@
       <c r="L97" s="16"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="392" t="s">
+      <c r="A98" s="398" t="s">
         <v>411</v>
       </c>
-      <c r="B98" s="325"/>
+      <c r="B98" s="337"/>
       <c r="C98" s="164">
         <f>C97+C96</f>
-        <v>176379.12603455933</v>
+        <v>83278.126034559333</v>
       </c>
       <c r="D98" s="164">
         <f>D97+D96</f>
-        <v>693953.06691093487</v>
+        <v>491299.06283093418</v>
       </c>
       <c r="E98" s="164">
         <f>E97+E96</f>
-        <v>1317155.8756361841</v>
+        <v>994698.32327618415</v>
       </c>
       <c r="F98" s="164">
         <f>F97+F96</f>
-        <v>2004382.7061885092</v>
+        <v>1550736.5513143076</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
@@ -8189,34 +8189,34 @@
       <c r="L98" s="16"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="394" t="s">
+      <c r="A102" s="401" t="s">
         <v>576</v>
       </c>
       <c r="B102" s="395"/>
-      <c r="C102" s="379"/>
-      <c r="D102" s="379"/>
-      <c r="E102" s="379"/>
-      <c r="F102" s="379"/>
-      <c r="G102" s="379"/>
-      <c r="H102" s="379"/>
-      <c r="I102" s="379"/>
-      <c r="J102" s="379"/>
-      <c r="K102" s="379"/>
-      <c r="L102" s="379"/>
+      <c r="C102" s="370"/>
+      <c r="D102" s="370"/>
+      <c r="E102" s="370"/>
+      <c r="F102" s="370"/>
+      <c r="G102" s="370"/>
+      <c r="H102" s="370"/>
+      <c r="I102" s="370"/>
+      <c r="J102" s="370"/>
+      <c r="K102" s="370"/>
+      <c r="L102" s="370"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="396" t="s">
+      <c r="A103" s="397" t="s">
         <v>494</v>
       </c>
-      <c r="B103" s="396" t="s">
+      <c r="B103" s="397" t="s">
         <v>495</v>
       </c>
-      <c r="C103" s="393" t="s">
+      <c r="C103" s="399" t="s">
         <v>360</v>
       </c>
-      <c r="D103" s="324"/>
-      <c r="E103" s="324"/>
-      <c r="F103" s="325"/>
+      <c r="D103" s="326"/>
+      <c r="E103" s="326"/>
+      <c r="F103" s="337"/>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
@@ -8225,8 +8225,8 @@
       <c r="L103" s="16"/>
     </row>
     <row r="104" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="345"/>
-      <c r="B104" s="345"/>
+      <c r="A104" s="348"/>
+      <c r="B104" s="348"/>
       <c r="C104" s="15" t="s">
         <v>361</v>
       </c>
@@ -8247,14 +8247,14 @@
       <c r="L104" s="16"/>
     </row>
     <row r="105" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="400" t="s">
+      <c r="A105" s="394" t="s">
         <v>577</v>
       </c>
-      <c r="B105" s="324"/>
-      <c r="C105" s="324"/>
-      <c r="D105" s="324"/>
-      <c r="E105" s="324"/>
-      <c r="F105" s="325"/>
+      <c r="B105" s="326"/>
+      <c r="C105" s="326"/>
+      <c r="D105" s="326"/>
+      <c r="E105" s="326"/>
+      <c r="F105" s="337"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
@@ -8275,15 +8275,15 @@
       </c>
       <c r="D106" s="166">
         <f>D38+D41+D44+D47+D50</f>
-        <v>3679909.6573200002</v>
+        <v>3672784.9532400002</v>
       </c>
       <c r="E106" s="166">
         <f>E38+E41+E44+E47+E50</f>
-        <v>3793904.9225999997</v>
+        <v>3786780.2185200001</v>
       </c>
       <c r="F106" s="166">
         <f>F38+F41+F44+F47+F50</f>
-        <v>3865151.9633999998</v>
+        <v>3858027.2593199997</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
@@ -8357,15 +8357,15 @@
       </c>
       <c r="D109" s="260">
         <f>D53</f>
-        <v>8883.7999999999993</v>
+        <v>8866.6</v>
       </c>
       <c r="E109" s="260">
         <f>E53</f>
-        <v>9176.9653999999991</v>
+        <v>9150.3312000000005</v>
       </c>
       <c r="F109" s="260">
         <f>F53</f>
-        <v>9479.8052581999982</v>
+        <v>9333.3378240000002</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
@@ -8375,25 +8375,25 @@
       <c r="L109" s="16"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="399" t="s">
+      <c r="A110" s="392" t="s">
         <v>581</v>
       </c>
-      <c r="B110" s="325"/>
+      <c r="B110" s="337"/>
       <c r="C110" s="162">
         <f>SUM(C106:C109)</f>
         <v>3570952.04</v>
       </c>
       <c r="D110" s="162">
         <f>SUM(D106:D109)</f>
-        <v>3688793.45732</v>
+        <v>3681651.5532400003</v>
       </c>
       <c r="E110" s="162">
         <f>SUM(E106:E109)</f>
-        <v>3803081.8879999998</v>
+        <v>3795930.54972</v>
       </c>
       <c r="F110" s="162">
         <f>SUM(F106:F109)</f>
-        <v>3874631.7686581998</v>
+        <v>3867360.5971439998</v>
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
@@ -8403,14 +8403,14 @@
       <c r="L110" s="16"/>
     </row>
     <row r="111" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="401" t="s">
+      <c r="A111" s="393" t="s">
         <v>582</v>
       </c>
-      <c r="B111" s="324"/>
-      <c r="C111" s="324"/>
-      <c r="D111" s="324"/>
-      <c r="E111" s="324"/>
-      <c r="F111" s="325"/>
+      <c r="B111" s="326"/>
+      <c r="C111" s="326"/>
+      <c r="D111" s="326"/>
+      <c r="E111" s="326"/>
+      <c r="F111" s="337"/>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
@@ -8486,7 +8486,8 @@
         <v>585</v>
       </c>
       <c r="C114" s="170">
-        <v>0</v>
+        <f>'1B-ContPP'!C20</f>
+        <v>203787</v>
       </c>
       <c r="D114" s="170">
         <v>0</v>
@@ -8535,13 +8536,13 @@
       <c r="L115" s="16"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="399" t="s">
+      <c r="A116" s="392" t="s">
         <v>586</v>
       </c>
-      <c r="B116" s="325"/>
+      <c r="B116" s="337"/>
       <c r="C116" s="312">
         <f>SUM(C112:C115)</f>
-        <v>3221017.6716125007</v>
+        <v>3424804.6716125007</v>
       </c>
       <c r="D116" s="312">
         <f>SUM(D112:D115)</f>
@@ -8563,25 +8564,25 @@
       <c r="L116" s="16"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="399" t="s">
+      <c r="A117" s="392" t="s">
         <v>103</v>
       </c>
-      <c r="B117" s="325"/>
+      <c r="B117" s="337"/>
       <c r="C117" s="312">
         <f>C110-C116</f>
-        <v>349934.36838749936</v>
+        <v>146147.36838749936</v>
       </c>
       <c r="D117" s="312">
         <f>D110-D116</f>
-        <v>448219.34087637533</v>
+        <v>441077.43679637555</v>
       </c>
       <c r="E117" s="312">
         <f>E110-E116</f>
-        <v>542951.32672524964</v>
+        <v>535799.98844524985</v>
       </c>
       <c r="F117" s="312">
         <f>F110-F116</f>
-        <v>594944.76255232468</v>
+        <v>587673.59103812464</v>
       </c>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
@@ -8591,14 +8592,14 @@
       <c r="L117" s="16"/>
     </row>
     <row r="118" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="401" t="s">
+      <c r="A118" s="393" t="s">
         <v>587</v>
       </c>
-      <c r="B118" s="324"/>
-      <c r="C118" s="324"/>
-      <c r="D118" s="324"/>
-      <c r="E118" s="324"/>
-      <c r="F118" s="325"/>
+      <c r="B118" s="326"/>
+      <c r="C118" s="326"/>
+      <c r="D118" s="326"/>
+      <c r="E118" s="326"/>
+      <c r="F118" s="337"/>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
@@ -8607,25 +8608,25 @@
       <c r="L118" s="16"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="399" t="s">
+      <c r="A119" s="392" t="s">
         <v>588</v>
       </c>
-      <c r="B119" s="325"/>
+      <c r="B119" s="337"/>
       <c r="C119" s="312">
         <f>C55</f>
-        <v>103094</v>
+        <v>9993</v>
       </c>
       <c r="D119" s="312">
         <f>D55</f>
-        <v>113370.40000000001</v>
+        <v>10959.300000000001</v>
       </c>
       <c r="E119" s="312">
         <f>E55</f>
-        <v>124707.44000000002</v>
+        <v>12055.230000000001</v>
       </c>
       <c r="F119" s="312">
         <f>F55</f>
-        <v>137178.18400000004</v>
+        <v>13260.753000000002</v>
       </c>
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
@@ -8635,14 +8636,14 @@
       <c r="L119" s="16"/>
     </row>
     <row r="120" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="401" t="s">
+      <c r="A120" s="393" t="s">
         <v>589</v>
       </c>
-      <c r="B120" s="324"/>
-      <c r="C120" s="324"/>
-      <c r="D120" s="324"/>
-      <c r="E120" s="324"/>
-      <c r="F120" s="325"/>
+      <c r="B120" s="326"/>
+      <c r="C120" s="326"/>
+      <c r="D120" s="326"/>
+      <c r="E120" s="326"/>
+      <c r="F120" s="337"/>
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
       <c r="I120" s="16"/>
@@ -8686,19 +8687,19 @@
         <v>564</v>
       </c>
       <c r="C122" s="168">
-        <f t="shared" ref="C122:F125" si="3">C82</f>
+        <f t="shared" ref="C122:F125" si="2">C82</f>
         <v>0</v>
       </c>
       <c r="D122" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E122" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F122" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G122" s="16"/>
@@ -8714,19 +8715,19 @@
         <v>565</v>
       </c>
       <c r="C123" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40193.800000000003</v>
       </c>
       <c r="D123" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40155.58</v>
       </c>
       <c r="E123" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40557.135800000004</v>
       </c>
       <c r="F123" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40958.305578000007</v>
       </c>
       <c r="G123" s="16"/>
@@ -8742,19 +8743,19 @@
         <v>566</v>
       </c>
       <c r="C124" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D124" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E124" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F124" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G124" s="16"/>
@@ -8772,19 +8773,19 @@
         <v>590</v>
       </c>
       <c r="C125" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3822</v>
       </c>
       <c r="D125" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3860.22</v>
       </c>
       <c r="E125" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3898.8221999999996</v>
       </c>
       <c r="F125" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3937.8104219999996</v>
       </c>
       <c r="G125" s="16"/>
@@ -8795,10 +8796,10 @@
       <c r="L125" s="16"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="399" t="s">
+      <c r="A126" s="392" t="s">
         <v>591</v>
       </c>
-      <c r="B126" s="325"/>
+      <c r="B126" s="337"/>
       <c r="C126" s="312">
         <f>C121+C125</f>
         <v>44015.8</v>
@@ -8823,25 +8824,25 @@
       <c r="L126" s="16"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="399" t="s">
+      <c r="A127" s="392" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="325"/>
+      <c r="B127" s="337"/>
       <c r="C127" s="312">
         <f>C119-C126</f>
-        <v>59078.2</v>
+        <v>-34022.800000000003</v>
       </c>
       <c r="D127" s="312">
         <f>D119-D126</f>
-        <v>69354.600000000006</v>
+        <v>-33056.5</v>
       </c>
       <c r="E127" s="312">
         <f>E119-E126</f>
-        <v>80251.482000000018</v>
+        <v>-32400.728000000003</v>
       </c>
       <c r="F127" s="312">
         <f>F119-F126</f>
-        <v>92282.068000000028</v>
+        <v>-31635.363000000005</v>
       </c>
       <c r="G127" s="16"/>
       <c r="H127" s="16"/>
@@ -8857,19 +8858,19 @@
       </c>
       <c r="C128" s="312">
         <f>C117+C127</f>
-        <v>409012.56838749937</v>
+        <v>112124.56838749936</v>
       </c>
       <c r="D128" s="312">
         <f>D117+D127</f>
-        <v>517573.9408763753</v>
+        <v>408020.93679637555</v>
       </c>
       <c r="E128" s="312">
         <f>E117+E127</f>
-        <v>623202.80872524972</v>
+        <v>503399.26044524985</v>
       </c>
       <c r="F128" s="312">
         <f>F117+F127</f>
-        <v>687226.83055232465</v>
+        <v>556038.22803812462</v>
       </c>
       <c r="G128" s="16"/>
       <c r="H128" s="16"/>
@@ -8885,19 +8886,19 @@
       </c>
       <c r="C129" s="169">
         <f>C110+C119</f>
-        <v>3674046.04</v>
+        <v>3580945.04</v>
       </c>
       <c r="D129" s="169">
         <f>D110+D119</f>
-        <v>3802163.85732</v>
+        <v>3692610.8532400001</v>
       </c>
       <c r="E129" s="169">
         <f>E110+E119</f>
-        <v>3927789.3279999997</v>
+        <v>3807985.77972</v>
       </c>
       <c r="F129" s="169">
         <f>F110+F119</f>
-        <v>4011809.9526581997</v>
+        <v>3880621.3501439998</v>
       </c>
       <c r="G129" s="16"/>
       <c r="H129" s="16"/>
@@ -8913,7 +8914,7 @@
       </c>
       <c r="C130" s="169">
         <f>C116+C126</f>
-        <v>3265033.4716125005</v>
+        <v>3468820.4716125005</v>
       </c>
       <c r="D130" s="169">
         <f>D116+D126</f>
@@ -8935,25 +8936,25 @@
       <c r="L130" s="16"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="399" t="s">
+      <c r="A131" s="392" t="s">
         <v>595</v>
       </c>
-      <c r="B131" s="325"/>
+      <c r="B131" s="337"/>
       <c r="C131" s="312">
         <f>C129-C130</f>
-        <v>409012.56838749954</v>
+        <v>112124.56838749954</v>
       </c>
       <c r="D131" s="312">
         <f>D129-D130</f>
-        <v>517573.94087637542</v>
+        <v>408020.93679637555</v>
       </c>
       <c r="E131" s="312">
         <f>E129-E130</f>
-        <v>623202.80872524949</v>
+        <v>503399.26044524973</v>
       </c>
       <c r="F131" s="312">
         <f>F129-F130</f>
-        <v>687226.83055232465</v>
+        <v>556038.22803812474</v>
       </c>
       <c r="G131" s="16"/>
       <c r="H131" s="16"/>
@@ -8975,15 +8976,15 @@
       </c>
       <c r="D132" s="126">
         <f>D106*0.01</f>
-        <v>36799.096573200004</v>
+        <v>36727.849532400003</v>
       </c>
       <c r="E132" s="126">
         <f>E106*0.01</f>
-        <v>37939.049225999996</v>
+        <v>37867.802185200002</v>
       </c>
       <c r="F132" s="126">
         <f>F106*0.01</f>
-        <v>38651.519633999997</v>
+        <v>38580.272593199996</v>
       </c>
       <c r="G132" s="16"/>
       <c r="H132" s="16"/>
@@ -8993,25 +8994,25 @@
       <c r="L132" s="16"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="399" t="s">
+      <c r="A133" s="392" t="s">
         <v>597</v>
       </c>
-      <c r="B133" s="325"/>
+      <c r="B133" s="337"/>
       <c r="C133" s="312">
         <f>C131-C132</f>
-        <v>373389.04798749957</v>
+        <v>76501.047987499536</v>
       </c>
       <c r="D133" s="312">
         <f>D131-D132</f>
-        <v>480774.8443031754</v>
+        <v>371293.08726397553</v>
       </c>
       <c r="E133" s="312">
         <f>E131-E132</f>
-        <v>585263.75949924951</v>
+        <v>465531.45826004975</v>
       </c>
       <c r="F133" s="312">
         <f>F131-F132</f>
-        <v>648575.31091832463</v>
+        <v>517457.95544492477</v>
       </c>
       <c r="G133" s="16"/>
       <c r="H133" s="16"/>
@@ -9027,18 +9028,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="A102:L102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A34:F34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
@@ -9054,25 +9062,18 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="A102:L102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A120:F120"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="HM10:HN13 RI10:RJ13 ABE10:ABF13 ALA10:ALB13 AUW10:AUX13 BES10:BET13 BOO10:BOP13 BYK10:BYL13 CIG10:CIH13 CSC10:CSD13 DBY10:DBZ13 DLU10:DLV13 DVQ10:DVR13 EFM10:EFN13 EPI10:EPJ13 EZE10:EZF13 FJA10:FJB13 FSW10:FSX13 GCS10:GCT13 GMO10:GMP13 GWK10:GWL13 HGG10:HGH13 HQC10:HQD13 HZY10:HZZ13 IJU10:IJV13 ITQ10:ITR13 JDM10:JDN13 JNI10:JNJ13 JXE10:JXF13 KHA10:KHB13 KQW10:KQX13 LAS10:LAT13 LKO10:LKP13 LUK10:LUL13 MEG10:MEH13 MOC10:MOD13 MXY10:MXZ13 NHU10:NHV13 NRQ10:NRR13 OBM10:OBN13 OLI10:OLJ13 OVE10:OVF13 PFA10:PFB13 POW10:POX13 PYS10:PYT13 QIO10:QIP13 QSK10:QSL13 RCG10:RCH13 RMC10:RMD13 RVY10:RVZ13 SFU10:SFV13 SPQ10:SPR13 SZM10:SZN13 TJI10:TJJ13 TTE10:TTF13 UDA10:UDB13 UMW10:UMX13 UWS10:UWT13 VGO10:VGP13 VQK10:VQL13 WAG10:WAH13 WKC10:WKD13 WTY10:WTZ13 HM8:HN8 HL96:HN96 RH96:RJ96 ABD96:ABF96 AKZ96:ALB96 AUV96:AUX96 BER96:BET96 BON96:BOP96 BYJ96:BYL96 CIF96:CIH96 CSB96:CSD96 DBX96:DBZ96 DLT96:DLV96 DVP96:DVR96 EFL96:EFN96 EPH96:EPJ96 EZD96:EZF96 FIZ96:FJB96 FSV96:FSX96 GCR96:GCT96 GMN96:GMP96 GWJ96:GWL96 HGF96:HGH96 HQB96:HQD96 HZX96:HZZ96 IJT96:IJV96 ITP96:ITR96 JDL96:JDN96 JNH96:JNJ96 JXD96:JXF96 KGZ96:KHB96 KQV96:KQX96 LAR96:LAT96 LKN96:LKP96 LUJ96:LUL96 MEF96:MEH96 MOB96:MOD96 MXX96:MXZ96 NHT96:NHV96 NRP96:NRR96 OBL96:OBN96 OLH96:OLJ96 OVD96:OVF96 PEZ96:PFB96 POV96:POX96 PYR96:PYT96 QIN96:QIP96 QSJ96:QSL96 RCF96:RCH96 RMB96:RMD96 RVX96:RVZ96 SFT96:SFV96 SPP96:SPR96 SZL96:SZN96 TJH96:TJJ96 TTD96:TTF96 UCZ96:UDB96 UMV96:UMX96 UWR96:UWT96 VGN96:VGP96 VQJ96:VQL96 WAF96:WAH96 WKB96:WKD96 WTX96:WTZ96 HM72:HN74 RI72:RJ74 ABE72:ABF74 ALA72:ALB74 AUW72:AUX74 BES72:BET74 BOO72:BOP74 BYK72:BYL74 CIG72:CIH74 CSC72:CSD74 DBY72:DBZ74 DLU72:DLV74 DVQ72:DVR74 EFM72:EFN74 EPI72:EPJ74 EZE72:EZF74 FJA72:FJB74 FSW72:FSX74 GCS72:GCT74 GMO72:GMP74 GWK72:GWL74 HGG72:HGH74 HQC72:HQD74 HZY72:HZZ74 IJU72:IJV74 ITQ72:ITR74 JDM72:JDN74 JNI72:JNJ74 JXE72:JXF74 KHA72:KHB74 KQW72:KQX74 LAS72:LAT74 LKO72:LKP74 LUK72:LUL74 MEG72:MEH74 MOC72:MOD74 MXY72:MXZ74 NHU72:NHV74 NRQ72:NRR74 OBM72:OBN74 OLI72:OLJ74 OVE72:OVF74 PFA72:PFB74 POW72:POX74 PYS72:PYT74 QIO72:QIP74 QSK72:QSL74 RCG72:RCH74 RMC72:RMD74 RVY72:RVZ74 SFU72:SFV74 SPQ72:SPR74 SZM72:SZN74 TJI72:TJJ74 TTE72:TTF74 UDA72:UDB74 UMW72:UMX74 UWS72:UWT74 VGO72:VGP74 VQK72:VQL74 WAG72:WAH74 WKC72:WKD74 WTY72:WTZ74 HM28:HN30 RI28:RJ30 ABE28:ABF30 ALA28:ALB30 AUW28:AUX30 BES28:BET30 BOO28:BOP30 BYK28:BYL30 CIG28:CIH30 CSC28:CSD30 DBY28:DBZ30 DLU28:DLV30 DVQ28:DVR30 EFM28:EFN30 EPI28:EPJ30 EZE28:EZF30 FJA28:FJB30 FSW28:FSX30 GCS28:GCT30 GMO28:GMP30 GWK28:GWL30 HGG28:HGH30 HQC28:HQD30 HZY28:HZZ30 IJU28:IJV30 ITQ28:ITR30 JDM28:JDN30 JNI28:JNJ30 JXE28:JXF30 KHA28:KHB30 KQW28:KQX30 LAS28:LAT30 LKO28:LKP30 LUK28:LUL30 MEG28:MEH30 MOC28:MOD30 MXY28:MXZ30 NHU28:NHV30 NRQ28:NRR30 OBM28:OBN30 OLI28:OLJ30 OVE28:OVF30 PFA28:PFB30 POW28:POX30 PYS28:PYT30 QIO28:QIP30 QSK28:QSL30 RCG28:RCH30 RMC28:RMD30 RVY28:RVZ30 SFU28:SFV30 SPQ28:SPR30 SZM28:SZN30 TJI28:TJJ30 TTE28:TTF30 UDA28:UDB30 UMW28:UMX30 UWS28:UWT30 VGO28:VGP30 VQK28:VQL30 WAG28:WAH30 WKC28:WKD30 WTY28:WTZ30 WTY25:WTZ25 WTY8:WTZ8 WKC25:WKD25 WKC8:WKD8 WAG25:WAH25 WAG8:WAH8 VQK25:VQL25 VQK8:VQL8 VGO25:VGP25 VGO8:VGP8 UWS25:UWT25 UWS8:UWT8 UMW25:UMX25 UMW8:UMX8 UDA25:UDB25 UDA8:UDB8 TTE25:TTF25 TTE8:TTF8 TJI25:TJJ25 TJI8:TJJ8 SZM25:SZN25 SZM8:SZN8 SPQ25:SPR25 SPQ8:SPR8 SFU25:SFV25 SFU8:SFV8 RVY25:RVZ25 RVY8:RVZ8 RMC25:RMD25 RMC8:RMD8 RCG25:RCH25 RCG8:RCH8 QSK25:QSL25 QSK8:QSL8 QIO25:QIP25 QIO8:QIP8 PYS25:PYT25 PYS8:PYT8 POW25:POX25 POW8:POX8 PFA25:PFB25 PFA8:PFB8 OVE25:OVF25 OVE8:OVF8 OLI25:OLJ25 OLI8:OLJ8 OBM25:OBN25 OBM8:OBN8 NRQ25:NRR25 NRQ8:NRR8 NHU25:NHV25 NHU8:NHV8 MXY25:MXZ25 MXY8:MXZ8 MOC25:MOD25 MOC8:MOD8 MEG25:MEH25 MEG8:MEH8 LUK25:LUL25 LUK8:LUL8 LKO25:LKP25 LKO8:LKP8 LAS25:LAT25 LAS8:LAT8 KQW25:KQX25 KQW8:KQX8 KHA25:KHB25 KHA8:KHB8 JXE25:JXF25 JXE8:JXF8 JNI25:JNJ25 JNI8:JNJ8 JDM25:JDN25 JDM8:JDN8 ITQ25:ITR25 ITQ8:ITR8 IJU25:IJV25 IJU8:IJV8 HZY25:HZZ25 HZY8:HZZ8 HQC25:HQD25 HQC8:HQD8 HGG25:HGH25 HGG8:HGH8 GWK25:GWL25 GWK8:GWL8 GMO25:GMP25 GMO8:GMP8 GCS25:GCT25 GCS8:GCT8 FSW25:FSX25 FSW8:FSX8 FJA25:FJB25 FJA8:FJB8 EZE25:EZF25 EZE8:EZF8 EPI25:EPJ25 EPI8:EPJ8 EFM25:EFN25 EFM8:EFN8 DVQ25:DVR25 DVQ8:DVR8 DLU25:DLV25 DLU8:DLV8 DBY25:DBZ25 DBY8:DBZ8 CSC25:CSD25 CSC8:CSD8 CIG25:CIH25 CIG8:CIH8 BYK25:BYL25 BYK8:BYL8 BOO25:BOP25 BOO8:BOP8 BES25:BET25 BES8:BET8 AUW25:AUX25 AUW8:AUX8 ALA25:ALB25 ALA8:ALB8 ABE25:ABF25 ABE8:ABF8 RI25:RJ25 RI8:RJ8 HM25:HN25 HL20:HN20 HL91:HN94 RH20:RJ20 RH91:RJ94 ABD20:ABF20 ABD91:ABF94 AKZ20:ALB20 AKZ91:ALB94 AUV20:AUX20 AUV91:AUX94 BER20:BET20 BER91:BET94 BON20:BOP20 BON91:BOP94 BYJ20:BYL20 BYJ91:BYL94 CIF20:CIH20 CIF91:CIH94 CSB20:CSD20 CSB91:CSD94 DBX20:DBZ20 DBX91:DBZ94 DLT20:DLV20 DLT91:DLV94 DVP20:DVR20 DVP91:DVR94 EFL20:EFN20 EFL91:EFN94 EPH20:EPJ20 EPH91:EPJ94 EZD20:EZF20 EZD91:EZF94 FIZ20:FJB20 FIZ91:FJB94 FSV20:FSX20 FSV91:FSX94 GCR20:GCT20 GCR91:GCT94 GMN20:GMP20 GMN91:GMP94 GWJ20:GWL20 GWJ91:GWL94 HGF20:HGH20 HGF91:HGH94 HQB20:HQD20 HQB91:HQD94 HZX20:HZZ20 HZX91:HZZ94 IJT20:IJV20 IJT91:IJV94 ITP20:ITR20 ITP91:ITR94 JDL20:JDN20 JDL91:JDN94 JNH20:JNJ20 JNH91:JNJ94 JXD20:JXF20 JXD91:JXF94 KGZ20:KHB20 KGZ91:KHB94 KQV20:KQX20 KQV91:KQX94 LAR20:LAT20 LAR91:LAT94 LKN20:LKP20 LKN91:LKP94 LUJ20:LUL20 LUJ91:LUL94 MEF20:MEH20 MEF91:MEH94 MOB20:MOD20 MOB91:MOD94 MXX20:MXZ20 MXX91:MXZ94 NHT20:NHV20 NHT91:NHV94 NRP20:NRR20 NRP91:NRR94 OBL20:OBN20 OBL91:OBN94 OLH20:OLJ20 OLH91:OLJ94 OVD20:OVF20 OVD91:OVF94 PEZ20:PFB20 PEZ91:PFB94 POV20:POX20 POV91:POX94 PYR20:PYT20 PYR91:PYT94 QIN20:QIP20 QIN91:QIP94 QSJ20:QSL20 QSJ91:QSL94 RCF20:RCH20 RCF91:RCH94 RMB20:RMD20 RMB91:RMD94 RVX20:RVZ20 RVX91:RVZ94 SFT20:SFV20 SFT91:SFV94 SPP20:SPR20 SPP91:SPR94 SZL20:SZN20 SZL91:SZN94 TJH20:TJJ20 TJH91:TJJ94 TTD20:TTF20 TTD91:TTF94 UCZ20:UDB20 UCZ91:UDB94 UMV20:UMX20 UMV91:UMX94 UWR20:UWT20 UWR91:UWT94 VGN20:VGP20 VGN91:VGP94 VQJ20:VQL20 VQJ91:VQL94 WAF20:WAH20 WAF91:WAH94 WKB20:WKD20 WKB91:WKD94 WTX20:WTZ20 WTX91:WTZ94 C20:F20 C80:F81 C87:F87 WTX80:WTZ87 C96:F96 WKB80:WKD87 WAF80:WAH87 VQJ80:VQL87 VGN80:VGP87 UWR80:UWT87 UMV80:UMX87 UCZ80:UDB87 TTD80:TTF87 TJH80:TJJ87 SZL80:SZN87 SPP80:SPR87 SFT80:SFV87 RVX80:RVZ87 RMB80:RMD87 RCF80:RCH87 QSJ80:QSL87 QIN80:QIP87 PYR80:PYT87 POV80:POX87 PEZ80:PFB87 OVD80:OVF87 OLH80:OLJ87 OBL80:OBN87 NRP80:NRR87 NHT80:NHV87 MXX80:MXZ87 MOB80:MOD87 MEF80:MEH87 LUJ80:LUL87 LKN80:LKP87 LAR80:LAT87 KQV80:KQX87 KGZ80:KHB87 JXD80:JXF87 JNH80:JNJ87 JDL80:JDN87 ITP80:ITR87 IJT80:IJV87 HZX80:HZZ87 HQB80:HQD87 HGF80:HGH87 GWJ80:GWL87 GMN80:GMP87 GCR80:GCT87 FSV80:FSX87 FIZ80:FJB87 EZD80:EZF87 EPH80:EPJ87 EFL80:EFN87 DVP80:DVR87 DLT80:DLV87 DBX80:DBZ87 CSB80:CSD87 CIF80:CIH87 BYJ80:BYL87 BON80:BOP87 BER80:BET87 AUV80:AUX87 AKZ80:ALB87 ABD80:ABF87 RH80:RJ87 HL80:HN87 C92:F94" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
@@ -9105,8 +9106,8 @@
   </sheetPr>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14870,7 +14871,7 @@
       <c r="F5" s="301"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="326" t="s">
+      <c r="A6" s="338" t="s">
         <v>245</v>
       </c>
       <c r="B6" s="317"/>
@@ -14883,23 +14884,23 @@
       <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="323" t="s">
+      <c r="B8" s="336" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="325"/>
+      <c r="C8" s="326"/>
+      <c r="D8" s="326"/>
+      <c r="E8" s="326"/>
+      <c r="F8" s="337"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="82"/>
-      <c r="B9" s="327" t="s">
+      <c r="B9" s="339" t="s">
         <v>248</v>
       </c>
       <c r="C9" s="317"/>
       <c r="D9" s="317"/>
       <c r="E9" s="317"/>
-      <c r="F9" s="328"/>
+      <c r="F9" s="324"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
@@ -14929,7 +14930,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="332" t="s">
+      <c r="B12" s="331" t="s">
         <v>251</v>
       </c>
       <c r="C12" s="317"/>
@@ -14942,23 +14943,23 @@
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="336" t="s">
+      <c r="B13" s="333" t="s">
         <v>252</v>
       </c>
       <c r="C13" s="317"/>
       <c r="D13" s="317"/>
       <c r="E13" s="317"/>
-      <c r="F13" s="328"/>
+      <c r="F13" s="324"/>
     </row>
     <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="332" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="334"/>
-      <c r="D14" s="334"/>
-      <c r="E14" s="334"/>
-      <c r="F14" s="335"/>
+      <c r="C14" s="328"/>
+      <c r="D14" s="328"/>
+      <c r="E14" s="328"/>
+      <c r="F14" s="329"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
@@ -14988,7 +14989,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
-      <c r="B17" s="331" t="s">
+      <c r="B17" s="335" t="s">
         <v>256</v>
       </c>
       <c r="C17" s="317"/>
@@ -15001,7 +15002,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="82"/>
-      <c r="B18" s="331" t="s">
+      <c r="B18" s="335" t="s">
         <v>257</v>
       </c>
       <c r="C18" s="317"/>
@@ -15014,7 +15015,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
-      <c r="B19" s="329" t="s">
+      <c r="B19" s="334" t="s">
         <v>258</v>
       </c>
       <c r="C19" s="317"/>
@@ -15027,26 +15028,26 @@
     </row>
     <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
-      <c r="B20" s="339" t="s">
+      <c r="B20" s="327" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="334"/>
-      <c r="D20" s="334"/>
-      <c r="E20" s="334"/>
-      <c r="F20" s="335"/>
+      <c r="C20" s="328"/>
+      <c r="D20" s="328"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="329"/>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
       <c r="B21" s="300" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="337" t="str">
+      <c r="C21" s="323" t="str">
         <f>CONCATENATE("Solicitantul ",IF(F12&gt;=0,"nu ",IF(F19&gt;=0,"nu ", IF(ABS(F19)&gt;F15/2,"","nu "))),"se încadrează în categoria întreprinderilor în dificultate")</f>
         <v>Solicitantul nu se încadrează în categoria întreprinderilor în dificultate</v>
       </c>
       <c r="D21" s="317"/>
       <c r="E21" s="317"/>
-      <c r="F21" s="328"/>
+      <c r="F21" s="324"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
@@ -15060,25 +15061,25 @@
       <c r="A23" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="338" t="s">
+      <c r="B23" s="325" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="324"/>
-      <c r="D23" s="324"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="324"/>
+      <c r="C23" s="326"/>
+      <c r="D23" s="326"/>
+      <c r="E23" s="326"/>
+      <c r="F23" s="326"/>
     </row>
     <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="338" t="s">
+      <c r="B24" s="325" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="324"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="324"/>
+      <c r="C24" s="326"/>
+      <c r="D24" s="326"/>
+      <c r="E24" s="326"/>
+      <c r="F24" s="326"/>
     </row>
     <row r="27" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="322" t="s">
@@ -15092,26 +15093,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.42708333333333331" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
   <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" horizontalDpi="300" verticalDpi="300"/>
@@ -15145,7 +15146,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="346" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="317"/>
@@ -15171,16 +15172,16 @@
       <c r="C3" s="317"/>
     </row>
     <row r="4" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="347" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="347" t="s">
+      <c r="B4" s="350" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="347" t="s">
+      <c r="C4" s="350" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="347" t="s">
+      <c r="D4" s="350" t="s">
         <v>271</v>
       </c>
       <c r="E4" s="264" t="s">
@@ -15193,10 +15194,10 @@
       <c r="N4" s="270"/>
     </row>
     <row r="5" spans="1:14" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="345"/>
-      <c r="B5" s="345"/>
-      <c r="C5" s="345"/>
-      <c r="D5" s="345"/>
+      <c r="A5" s="348"/>
+      <c r="B5" s="348"/>
+      <c r="C5" s="348"/>
+      <c r="D5" s="348"/>
       <c r="E5" s="189" t="s">
         <v>273</v>
       </c>
@@ -15608,14 +15609,14 @@
       <c r="N21" s="209"/>
     </row>
     <row r="22" spans="1:14" s="225" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="348" t="s">
+      <c r="A22" s="351" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="335"/>
-      <c r="C22" s="346" t="s">
+      <c r="B22" s="329"/>
+      <c r="C22" s="349" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="347" t="s">
+      <c r="D22" s="350" t="s">
         <v>271</v>
       </c>
       <c r="E22" s="265" t="s">
@@ -15629,10 +15630,10 @@
       <c r="K22" s="246"/>
     </row>
     <row r="23" spans="1:14" s="190" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="349"/>
-      <c r="B23" s="350"/>
-      <c r="C23" s="345"/>
-      <c r="D23" s="345"/>
+      <c r="A23" s="352"/>
+      <c r="B23" s="353"/>
+      <c r="C23" s="348"/>
+      <c r="D23" s="348"/>
       <c r="E23" s="189" t="s">
         <v>273</v>
       </c>
@@ -15644,10 +15645,10 @@
       <c r="K23" s="179"/>
     </row>
     <row r="24" spans="1:14" s="193" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="340" t="s">
+      <c r="A24" s="354" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="325"/>
+      <c r="B24" s="337"/>
       <c r="C24" s="191">
         <f>'2A-Buget_cerere'!C23</f>
         <v>434974.61</v>
@@ -15668,10 +15669,10 @@
       <c r="K24" s="192"/>
     </row>
     <row r="25" spans="1:14" s="193" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="342" t="s">
+      <c r="A25" s="356" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="325"/>
+      <c r="B25" s="337"/>
       <c r="C25" s="251">
         <f>'2A-Buget_cerere'!G18</f>
         <v>67166.540000000008</v>
@@ -15691,10 +15692,10 @@
       <c r="K25" s="192"/>
     </row>
     <row r="26" spans="1:14" s="193" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="340" t="s">
+      <c r="A26" s="354" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="325"/>
+      <c r="B26" s="337"/>
       <c r="C26" s="191">
         <f>'2A-Buget_cerere'!C26</f>
         <v>232680.17</v>
@@ -15714,10 +15715,10 @@
       <c r="K26" s="192"/>
     </row>
     <row r="27" spans="1:14" s="190" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="341" t="s">
+      <c r="A27" s="355" t="s">
         <v>282</v>
       </c>
-      <c r="B27" s="325"/>
+      <c r="B27" s="337"/>
       <c r="C27" s="191"/>
       <c r="D27" s="42"/>
       <c r="E27" s="34">
@@ -15731,10 +15732,10 @@
       <c r="K27" s="179"/>
     </row>
     <row r="28" spans="1:14" s="190" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="341" t="s">
+      <c r="A28" s="355" t="s">
         <v>283</v>
       </c>
-      <c r="B28" s="325"/>
+      <c r="B28" s="337"/>
       <c r="C28" s="191"/>
       <c r="D28" s="42"/>
       <c r="E28" s="34">
@@ -15748,11 +15749,11 @@
       <c r="K28" s="179"/>
     </row>
     <row r="29" spans="1:14" s="193" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="340" t="str">
+      <c r="A29" s="354" t="str">
         <f>'2A-Buget_cerere'!B29</f>
         <v>ASISTENŢĂ FINANCIARĂ NERAMBURSABILĂ SOLICITATĂ</v>
       </c>
-      <c r="B29" s="325"/>
+      <c r="B29" s="337"/>
       <c r="C29" s="191">
         <f>'2A-Buget_cerere'!C29</f>
         <v>202294.43999999997</v>
@@ -15804,11 +15805,11 @@
       <c r="N31" s="192"/>
     </row>
     <row r="32" spans="1:14" s="198" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="351" t="s">
+      <c r="A32" s="343" t="s">
         <v>284</v>
       </c>
-      <c r="B32" s="352"/>
-      <c r="C32" s="352"/>
+      <c r="B32" s="341"/>
+      <c r="C32" s="341"/>
       <c r="D32" s="202"/>
       <c r="E32" s="203"/>
       <c r="F32" s="203"/>
@@ -15822,10 +15823,10 @@
       <c r="N32" s="179"/>
     </row>
     <row r="33" spans="1:14" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="355" t="s">
+      <c r="A33" s="345" t="s">
         <v>285</v>
       </c>
-      <c r="B33" s="325"/>
+      <c r="B33" s="337"/>
       <c r="C33" s="197" t="s">
         <v>286</v>
       </c>
@@ -15844,10 +15845,10 @@
       <c r="N33" s="179"/>
     </row>
     <row r="34" spans="1:14" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="354" t="s">
+      <c r="A34" s="342" t="s">
         <v>290</v>
       </c>
-      <c r="B34" s="325"/>
+      <c r="B34" s="337"/>
       <c r="C34" s="42">
         <f>SUM(D34:G34)</f>
         <v>0</v>
@@ -15862,10 +15863,10 @@
       <c r="N34" s="179"/>
     </row>
     <row r="35" spans="1:14" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="354" t="s">
+      <c r="A35" s="342" t="s">
         <v>291</v>
       </c>
-      <c r="B35" s="325"/>
+      <c r="B35" s="337"/>
       <c r="C35" s="42">
         <f>SUM(D35:G35)</f>
         <v>0</v>
@@ -15885,10 +15886,10 @@
       <c r="N35" s="179"/>
     </row>
     <row r="36" spans="1:14" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="354" t="s">
+      <c r="A36" s="342" t="s">
         <v>292</v>
       </c>
-      <c r="B36" s="325"/>
+      <c r="B36" s="337"/>
       <c r="C36" s="42">
         <f>SUM(D36:G36)</f>
         <v>0</v>
@@ -15908,10 +15909,10 @@
       <c r="N36" s="179"/>
     </row>
     <row r="37" spans="1:14" s="199" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="353" t="s">
+      <c r="A37" s="344" t="s">
         <v>293</v>
       </c>
-      <c r="B37" s="325"/>
+      <c r="B37" s="337"/>
       <c r="C37" s="42">
         <f>SUM(D37:G37)</f>
         <v>0</v>
@@ -15965,11 +15966,11 @@
       <c r="N39" s="179"/>
     </row>
     <row r="40" spans="1:14" s="198" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="356" t="s">
+      <c r="A40" s="340" t="s">
         <v>294</v>
       </c>
-      <c r="B40" s="352"/>
-      <c r="C40" s="328"/>
+      <c r="B40" s="341"/>
+      <c r="C40" s="324"/>
       <c r="D40" s="189" t="s">
         <v>273</v>
       </c>
@@ -15991,11 +15992,11 @@
       <c r="N40" s="179"/>
     </row>
     <row r="41" spans="1:14" s="198" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="354" t="s">
+      <c r="A41" s="342" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="324"/>
-      <c r="C41" s="325"/>
+      <c r="B41" s="326"/>
+      <c r="C41" s="337"/>
       <c r="D41" s="34">
         <v>0</v>
       </c>
@@ -16017,11 +16018,11 @@
       <c r="N41" s="179"/>
     </row>
     <row r="42" spans="1:14" s="198" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="354" t="s">
+      <c r="A42" s="342" t="s">
         <v>295</v>
       </c>
-      <c r="B42" s="324"/>
-      <c r="C42" s="325"/>
+      <c r="B42" s="326"/>
+      <c r="C42" s="337"/>
       <c r="D42" s="39">
         <f>D34-D35</f>
         <v>0</v>
@@ -16047,11 +16048,11 @@
       <c r="N42" s="179"/>
     </row>
     <row r="43" spans="1:14" s="198" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="354" t="s">
+      <c r="A43" s="342" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="324"/>
-      <c r="C43" s="325"/>
+      <c r="B43" s="326"/>
+      <c r="C43" s="337"/>
       <c r="D43" s="34">
         <v>0</v>
       </c>
@@ -16073,11 +16074,11 @@
       <c r="N43" s="179"/>
     </row>
     <row r="44" spans="1:14" s="198" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="354" t="s">
+      <c r="A44" s="342" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="324"/>
-      <c r="C44" s="325"/>
+      <c r="B44" s="326"/>
+      <c r="C44" s="337"/>
       <c r="D44" s="34">
         <v>0</v>
       </c>
@@ -16099,11 +16100,11 @@
       <c r="N44" s="179"/>
     </row>
     <row r="45" spans="1:14" s="198" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="354" t="s">
+      <c r="A45" s="342" t="s">
         <v>298</v>
       </c>
-      <c r="B45" s="324"/>
-      <c r="C45" s="325"/>
+      <c r="B45" s="326"/>
+      <c r="C45" s="337"/>
       <c r="D45" s="182" t="str">
         <f>IFERROR(SUM(D42:D44)/(SUM(D42:D44)+D41),"")</f>
         <v/>
@@ -16322,18 +16323,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A5"/>
@@ -16344,12 +16339,18 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:G31">
     <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="nu">
@@ -16436,14 +16437,14 @@
       <c r="C3" s="362" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="325"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="362" t="s">
         <v>303</v>
       </c>
       <c r="F3" s="362" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="325"/>
+      <c r="G3" s="337"/>
       <c r="H3" s="362" t="s">
         <v>305</v>
       </c>
@@ -16452,23 +16453,23 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="345"/>
-      <c r="B4" s="345"/>
+      <c r="A4" s="348"/>
+      <c r="B4" s="348"/>
       <c r="C4" s="304" t="s">
         <v>307</v>
       </c>
       <c r="D4" s="304" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="345"/>
+      <c r="E4" s="348"/>
       <c r="F4" s="304" t="s">
         <v>309</v>
       </c>
       <c r="G4" s="304" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="345"/>
-      <c r="I4" s="345"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="348"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="118" t="s">
@@ -17163,7 +17164,7 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -17177,15 +17178,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="346" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="377"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="302"/>
@@ -17198,51 +17199,51 @@
     </row>
     <row r="3" spans="1:13" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
-      <c r="B3" s="382" t="s">
+      <c r="B3" s="372" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="378"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="379"/>
-      <c r="F3" s="379"/>
-      <c r="G3" s="379"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="379"/>
-      <c r="J3" s="379"/>
-      <c r="K3" s="379"/>
-      <c r="L3" s="379"/>
-      <c r="M3" s="379"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="370"/>
+      <c r="J3" s="370"/>
+      <c r="K3" s="370"/>
+      <c r="L3" s="370"/>
+      <c r="M3" s="370"/>
     </row>
     <row r="4" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="383" t="s">
+      <c r="A4" s="377" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="368"/>
-      <c r="C4" s="368"/>
-      <c r="D4" s="368"/>
-      <c r="E4" s="368"/>
-      <c r="F4" s="368"/>
-      <c r="G4" s="368"/>
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
     </row>
     <row r="5" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="372" t="s">
+      <c r="A5" s="374" t="s">
         <v>359</v>
       </c>
       <c r="B5" s="373"/>
-      <c r="C5" s="374" t="s">
+      <c r="C5" s="375" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="369" t="s">
+      <c r="D5" s="376" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="325"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="337"/>
     </row>
     <row r="6" spans="1:13" s="90" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="345"/>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
+      <c r="A6" s="348"/>
+      <c r="B6" s="348"/>
+      <c r="C6" s="348"/>
       <c r="D6" s="266" t="s">
         <v>361</v>
       </c>
@@ -17257,26 +17258,26 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="365" t="s">
+      <c r="A7" s="367" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="324"/>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="325"/>
+      <c r="B7" s="326"/>
+      <c r="C7" s="326"/>
+      <c r="D7" s="326"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="337"/>
     </row>
     <row r="8" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="366" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="324"/>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="325"/>
+      <c r="B8" s="326"/>
+      <c r="C8" s="326"/>
+      <c r="D8" s="326"/>
+      <c r="E8" s="326"/>
+      <c r="F8" s="326"/>
+      <c r="G8" s="337"/>
     </row>
     <row r="9" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -17504,26 +17505,26 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="365" t="s">
+      <c r="A19" s="367" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="324"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="324"/>
-      <c r="G19" s="325"/>
+      <c r="B19" s="326"/>
+      <c r="C19" s="326"/>
+      <c r="D19" s="326"/>
+      <c r="E19" s="326"/>
+      <c r="F19" s="326"/>
+      <c r="G19" s="337"/>
     </row>
     <row r="20" spans="1:7" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="366" t="s">
         <v>378</v>
       </c>
-      <c r="B20" s="324"/>
-      <c r="C20" s="324"/>
-      <c r="D20" s="324"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="324"/>
-      <c r="G20" s="325"/>
+      <c r="B20" s="326"/>
+      <c r="C20" s="326"/>
+      <c r="D20" s="326"/>
+      <c r="E20" s="326"/>
+      <c r="F20" s="326"/>
+      <c r="G20" s="337"/>
     </row>
     <row r="21" spans="1:7" s="90" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -18515,35 +18516,35 @@
       <c r="M59" s="93"/>
     </row>
     <row r="60" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="376" t="s">
+      <c r="A60" s="379" t="s">
         <v>412</v>
       </c>
-      <c r="B60" s="324"/>
-      <c r="C60" s="324"/>
-      <c r="D60" s="324"/>
-      <c r="E60" s="324"/>
-      <c r="F60" s="324"/>
-      <c r="G60" s="324"/>
+      <c r="B60" s="326"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="326"/>
+      <c r="E60" s="326"/>
+      <c r="F60" s="326"/>
+      <c r="G60" s="326"/>
     </row>
     <row r="61" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="372" t="s">
+      <c r="A61" s="374" t="s">
         <v>359</v>
       </c>
       <c r="B61" s="373"/>
-      <c r="C61" s="374" t="s">
+      <c r="C61" s="375" t="s">
         <v>286</v>
       </c>
-      <c r="D61" s="369" t="s">
+      <c r="D61" s="376" t="s">
         <v>360</v>
       </c>
-      <c r="E61" s="324"/>
-      <c r="F61" s="324"/>
-      <c r="G61" s="325"/>
+      <c r="E61" s="326"/>
+      <c r="F61" s="326"/>
+      <c r="G61" s="337"/>
     </row>
     <row r="62" spans="1:13" s="90" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="345"/>
-      <c r="B62" s="345"/>
-      <c r="C62" s="345"/>
+      <c r="A62" s="348"/>
+      <c r="B62" s="348"/>
+      <c r="C62" s="348"/>
       <c r="D62" s="266" t="s">
         <v>361</v>
       </c>
@@ -18558,26 +18559,26 @@
       </c>
     </row>
     <row r="63" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="365" t="s">
+      <c r="A63" s="367" t="s">
         <v>413</v>
       </c>
-      <c r="B63" s="324"/>
-      <c r="C63" s="324"/>
-      <c r="D63" s="324"/>
-      <c r="E63" s="324"/>
-      <c r="F63" s="324"/>
-      <c r="G63" s="325"/>
+      <c r="B63" s="326"/>
+      <c r="C63" s="326"/>
+      <c r="D63" s="326"/>
+      <c r="E63" s="326"/>
+      <c r="F63" s="326"/>
+      <c r="G63" s="337"/>
     </row>
     <row r="64" spans="1:13" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="366" t="s">
         <v>366</v>
       </c>
-      <c r="B64" s="324"/>
-      <c r="C64" s="324"/>
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
-      <c r="F64" s="324"/>
-      <c r="G64" s="325"/>
+      <c r="B64" s="326"/>
+      <c r="C64" s="326"/>
+      <c r="D64" s="326"/>
+      <c r="E64" s="326"/>
+      <c r="F64" s="326"/>
+      <c r="G64" s="337"/>
     </row>
     <row r="65" spans="1:9" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -18723,7 +18724,7 @@
       </c>
       <c r="C71" s="128">
         <f>SUM(D71:G71)</f>
-        <v>17732569.1141508</v>
+        <v>17707133.9205852</v>
       </c>
       <c r="D71" s="127">
         <f>D72*D73</f>
@@ -18731,15 +18732,15 @@
       </c>
       <c r="E71" s="127">
         <f>E72*E73</f>
-        <v>4379092.4922107998</v>
+        <v>4370614.0943556</v>
       </c>
       <c r="F71" s="127">
         <f>F72*F73</f>
-        <v>4514746.8578939997</v>
+        <v>4506268.4600387998</v>
       </c>
       <c r="G71" s="127">
         <f>G72*G73</f>
-        <v>4599530.8364459993</v>
+        <v>4591052.4385907995</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="91" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18772,16 +18773,16 @@
         <v>4239198.9276000001</v>
       </c>
       <c r="E73" s="126">
-        <f>D73*0.033 + D73</f>
-        <v>4379092.4922107998</v>
+        <f>D73*0.031+ D73</f>
+        <v>4370614.0943556</v>
       </c>
       <c r="F73" s="126">
         <f>D73*0.032 + E73</f>
-        <v>4514746.8578939997</v>
+        <v>4506268.4600387998</v>
       </c>
       <c r="G73" s="126">
         <f>D73*0.02 + F73</f>
-        <v>4599530.8364459993</v>
+        <v>4591052.4385907995</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="92" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -18791,7 +18792,7 @@
       </c>
       <c r="C74" s="128">
         <f>SUM(D74:G74)</f>
-        <v>17732569.1141508</v>
+        <v>17707133.9205852</v>
       </c>
       <c r="D74" s="128">
         <f>D65+D68+D71</f>
@@ -18799,38 +18800,38 @@
       </c>
       <c r="E74" s="128">
         <f>E65+E68+E71</f>
-        <v>4379092.4922107998</v>
+        <v>4370614.0943556</v>
       </c>
       <c r="F74" s="128">
         <f>F65+F68+F71</f>
-        <v>4514746.8578939997</v>
+        <v>4506268.4600387998</v>
       </c>
       <c r="G74" s="128">
         <f>G65+G68+G71</f>
-        <v>4599530.8364459993</v>
+        <v>4591052.4385907995</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="365" t="s">
+      <c r="A75" s="367" t="s">
         <v>415</v>
       </c>
-      <c r="B75" s="324"/>
-      <c r="C75" s="324"/>
-      <c r="D75" s="324"/>
-      <c r="E75" s="324"/>
-      <c r="F75" s="324"/>
-      <c r="G75" s="325"/>
+      <c r="B75" s="326"/>
+      <c r="C75" s="326"/>
+      <c r="D75" s="326"/>
+      <c r="E75" s="326"/>
+      <c r="F75" s="326"/>
+      <c r="G75" s="337"/>
     </row>
     <row r="76" spans="1:9" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="366" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="324"/>
-      <c r="C76" s="324"/>
-      <c r="D76" s="324"/>
-      <c r="E76" s="324"/>
-      <c r="F76" s="324"/>
-      <c r="G76" s="325"/>
+      <c r="B76" s="326"/>
+      <c r="C76" s="326"/>
+      <c r="D76" s="326"/>
+      <c r="E76" s="326"/>
+      <c r="F76" s="326"/>
+      <c r="G76" s="337"/>
     </row>
     <row r="77" spans="1:9" s="90" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
@@ -19566,7 +19567,7 @@
       </c>
       <c r="C108" s="128">
         <f t="shared" si="1"/>
-        <v>3068144.218272699</v>
+        <v>3042709.0247070994</v>
       </c>
       <c r="D108" s="127">
         <f>D74-D107</f>
@@ -19574,15 +19575,15 @@
       </c>
       <c r="E108" s="127">
         <f>E74-E107</f>
-        <v>723628.19991444983</v>
+        <v>715149.80205924995</v>
       </c>
       <c r="F108" s="127">
         <f>F74-F107</f>
-        <v>837998.70225129975</v>
+        <v>829520.30439609988</v>
       </c>
       <c r="G108" s="127">
         <f>G74-G107</f>
-        <v>901498.81745694904</v>
+        <v>893020.41960174916</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19595,7 @@
       </c>
       <c r="C109" s="128">
         <f t="shared" si="1"/>
-        <v>1244602.5282427</v>
+        <v>1240541.4469170999</v>
       </c>
       <c r="D109" s="126">
         <f>D74*0.19/1.19 -(D79+D81+D84+D85+D88+D91+D94+D102)*0.19/1.19</f>
@@ -19602,15 +19603,15 @@
       </c>
       <c r="E109" s="126">
         <f>E74*0.19/1.19 -(E79+E81+E84+E85+E88+E91+E94+E102)*0.19/1.19</f>
-        <v>303290.49480945006</v>
+        <v>301936.80103425001</v>
       </c>
       <c r="F109" s="126">
         <f>F74*0.19/1.19 -(F79+F81+F84+F85+F88+F91+F94+F102)*0.19/1.19</f>
-        <v>323410.27408130001</v>
+        <v>322056.58030609996</v>
       </c>
       <c r="G109" s="126">
         <f>G74*0.19/1.19 -(G79+G81+G84+F85+G88+G91+G94+G102)*0.19/1.19</f>
-        <v>335407.89070194989</v>
+        <v>334054.19692674995</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.3">
@@ -19644,7 +19645,7 @@
       </c>
       <c r="C111" s="128">
         <f t="shared" si="1"/>
-        <v>149013.1858332</v>
+        <v>148799.44471080002</v>
       </c>
       <c r="D111" s="126">
         <f>(D74/1.19) *(1/100)</f>
@@ -19652,15 +19653,15 @@
       </c>
       <c r="E111" s="126">
         <f>(E74/1.19)*(1/100)</f>
-        <v>36799.096573200004</v>
+        <v>36727.849532400003</v>
       </c>
       <c r="F111" s="126">
         <f>(F74/1.19)*(1/100)</f>
-        <v>37939.049225999996</v>
+        <v>37867.802185200002</v>
       </c>
       <c r="G111" s="126">
         <f>(G74/1.19)*(1/100)</f>
-        <v>38651.519633999997</v>
+        <v>38580.272593199996</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="93" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -19670,7 +19671,7 @@
       </c>
       <c r="C112" s="128">
         <f t="shared" si="1"/>
-        <v>1393615.7140758999</v>
+        <v>1389340.8916278998</v>
       </c>
       <c r="D112" s="127">
         <f>D109-D110+D111</f>
@@ -19678,15 +19679,15 @@
       </c>
       <c r="E112" s="127">
         <f>E109-E110+E111</f>
-        <v>340089.59138265008</v>
+        <v>338664.65056665003</v>
       </c>
       <c r="F112" s="127">
         <f>F109-F110+F111</f>
-        <v>361349.32330729999</v>
+        <v>359924.38249129994</v>
       </c>
       <c r="G112" s="127">
         <f>G109-G110+G111</f>
-        <v>374059.41033594985</v>
+        <v>372634.46951994993</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="92" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -19696,7 +19697,7 @@
       </c>
       <c r="C113" s="128">
         <f t="shared" si="1"/>
-        <v>1674528.5041967991</v>
+        <v>1653368.1330791996</v>
       </c>
       <c r="D113" s="128">
         <f>D108-D112</f>
@@ -19704,15 +19705,15 @@
       </c>
       <c r="E113" s="128">
         <f>E108-E112</f>
-        <v>383538.60853179975</v>
+        <v>376485.15149259992</v>
       </c>
       <c r="F113" s="128">
         <f>F108-F112</f>
-        <v>476649.37894399976</v>
+        <v>469595.92190479994</v>
       </c>
       <c r="G113" s="128">
         <f>G108-G112</f>
-        <v>527439.40712099918</v>
+        <v>520385.95008179924</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19731,15 +19732,15 @@
       <c r="M114" s="129"/>
     </row>
     <row r="115" spans="1:13" s="149" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="370" t="s">
+      <c r="A115" s="382" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="371"/>
-      <c r="C115" s="371"/>
-      <c r="D115" s="371"/>
-      <c r="E115" s="371"/>
-      <c r="F115" s="371"/>
-      <c r="G115" s="371"/>
+      <c r="B115" s="383"/>
+      <c r="C115" s="383"/>
+      <c r="D115" s="383"/>
+      <c r="E115" s="383"/>
+      <c r="F115" s="383"/>
+      <c r="G115" s="383"/>
       <c r="H115" s="148"/>
       <c r="I115" s="148"/>
       <c r="J115" s="148"/>
@@ -20000,7 +20001,7 @@
       <c r="A127" s="366" t="s">
         <v>432</v>
       </c>
-      <c r="B127" s="325"/>
+      <c r="B127" s="337"/>
       <c r="C127" s="173" t="s">
         <v>286</v>
       </c>
@@ -20152,7 +20153,7 @@
       <c r="A133" s="366" t="s">
         <v>438</v>
       </c>
-      <c r="B133" s="325"/>
+      <c r="B133" s="337"/>
       <c r="C133" s="128">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -20184,10 +20185,10 @@
       <c r="G134" s="129"/>
     </row>
     <row r="135" spans="1:7" s="92" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="381" t="s">
+      <c r="A135" s="365" t="s">
         <v>439</v>
       </c>
-      <c r="B135" s="335"/>
+      <c r="B135" s="329"/>
       <c r="C135" s="173" t="s">
         <v>286</v>
       </c>
@@ -20205,11 +20206,11 @@
       </c>
     </row>
     <row r="136" spans="1:7" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="349"/>
-      <c r="B136" s="350"/>
+      <c r="A136" s="352"/>
+      <c r="B136" s="353"/>
       <c r="C136" s="128">
         <f>SUM(D136:G136)</f>
-        <v>1674528.5041967991</v>
+        <v>1653368.1330791996</v>
       </c>
       <c r="D136" s="128">
         <f>D113+D133</f>
@@ -20217,22 +20218,22 @@
       </c>
       <c r="E136" s="128">
         <f>E113+E133</f>
-        <v>383538.60853179975</v>
+        <v>376485.15149259992</v>
       </c>
       <c r="F136" s="128">
         <f>F113+F133</f>
-        <v>476649.37894399976</v>
+        <v>469595.92190479994</v>
       </c>
       <c r="G136" s="128">
         <f>G113+G133</f>
-        <v>527439.40712099918</v>
+        <v>520385.95008179924</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="380" t="s">
+      <c r="A137" s="371" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="325"/>
+      <c r="B137" s="337"/>
       <c r="C137" s="128"/>
       <c r="D137" s="127">
         <f>'1A-Bilant'!C28</f>
@@ -20244,18 +20245,18 @@
       </c>
       <c r="F137" s="127">
         <f>E138</f>
-        <v>703201.71813180018</v>
+        <v>696148.26109260041</v>
       </c>
       <c r="G137" s="127">
         <f>F138</f>
-        <v>1179851.0970757999</v>
+        <v>1165744.1829974004</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="93" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="380" t="s">
+      <c r="A138" s="371" t="s">
         <v>411</v>
       </c>
-      <c r="B138" s="325"/>
+      <c r="B138" s="337"/>
       <c r="C138" s="128"/>
       <c r="D138" s="127">
         <f>D136 + D137</f>
@@ -20263,15 +20264,15 @@
       </c>
       <c r="E138" s="127">
         <f>E136 + E137</f>
-        <v>703201.71813180018</v>
+        <v>696148.26109260041</v>
       </c>
       <c r="F138" s="127">
         <f>F136 + F137</f>
-        <v>1179851.0970757999</v>
+        <v>1165744.1829974004</v>
       </c>
       <c r="G138" s="127">
         <f>G136 + G137</f>
-        <v>1707290.5041967991</v>
+        <v>1686130.1330791996</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="93" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20284,35 +20285,35 @@
       <c r="G139" s="238"/>
     </row>
     <row r="140" spans="1:7" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="367" t="s">
+      <c r="A140" s="381" t="s">
         <v>440</v>
       </c>
-      <c r="B140" s="368"/>
-      <c r="C140" s="368"/>
-      <c r="D140" s="368"/>
-      <c r="E140" s="368"/>
-      <c r="F140" s="368"/>
-      <c r="G140" s="368"/>
+      <c r="B140" s="378"/>
+      <c r="C140" s="378"/>
+      <c r="D140" s="378"/>
+      <c r="E140" s="378"/>
+      <c r="F140" s="378"/>
+      <c r="G140" s="378"/>
     </row>
     <row r="141" spans="1:7" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="372" t="s">
+      <c r="A141" s="374" t="s">
         <v>359</v>
       </c>
       <c r="B141" s="373"/>
-      <c r="C141" s="374" t="s">
+      <c r="C141" s="375" t="s">
         <v>286</v>
       </c>
-      <c r="D141" s="369" t="s">
+      <c r="D141" s="376" t="s">
         <v>360</v>
       </c>
-      <c r="E141" s="324"/>
-      <c r="F141" s="324"/>
-      <c r="G141" s="325"/>
+      <c r="E141" s="326"/>
+      <c r="F141" s="326"/>
+      <c r="G141" s="337"/>
     </row>
     <row r="142" spans="1:7" s="90" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="345"/>
-      <c r="B142" s="345"/>
-      <c r="C142" s="345"/>
+      <c r="A142" s="348"/>
+      <c r="B142" s="348"/>
+      <c r="C142" s="348"/>
       <c r="D142" s="266" t="s">
         <v>361</v>
       </c>
@@ -20327,37 +20328,37 @@
       </c>
     </row>
     <row r="143" spans="1:7" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="375" t="s">
+      <c r="A143" s="380" t="s">
         <v>441</v>
       </c>
-      <c r="B143" s="324"/>
-      <c r="C143" s="324"/>
-      <c r="D143" s="324"/>
-      <c r="E143" s="324"/>
-      <c r="F143" s="324"/>
-      <c r="G143" s="325"/>
+      <c r="B143" s="326"/>
+      <c r="C143" s="326"/>
+      <c r="D143" s="326"/>
+      <c r="E143" s="326"/>
+      <c r="F143" s="326"/>
+      <c r="G143" s="337"/>
     </row>
     <row r="144" spans="1:7" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="365" t="s">
+      <c r="A144" s="367" t="s">
         <v>442</v>
       </c>
-      <c r="B144" s="324"/>
-      <c r="C144" s="324"/>
-      <c r="D144" s="324"/>
-      <c r="E144" s="324"/>
-      <c r="F144" s="324"/>
-      <c r="G144" s="325"/>
+      <c r="B144" s="326"/>
+      <c r="C144" s="326"/>
+      <c r="D144" s="326"/>
+      <c r="E144" s="326"/>
+      <c r="F144" s="326"/>
+      <c r="G144" s="337"/>
     </row>
     <row r="145" spans="1:7" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="366" t="s">
         <v>443</v>
       </c>
-      <c r="B145" s="324"/>
-      <c r="C145" s="324"/>
-      <c r="D145" s="324"/>
-      <c r="E145" s="324"/>
-      <c r="F145" s="324"/>
-      <c r="G145" s="325"/>
+      <c r="B145" s="326"/>
+      <c r="C145" s="326"/>
+      <c r="D145" s="326"/>
+      <c r="E145" s="326"/>
+      <c r="F145" s="326"/>
+      <c r="G145" s="337"/>
     </row>
     <row r="146" spans="1:7" s="90" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
@@ -20424,7 +20425,7 @@
       </c>
       <c r="C148" s="128">
         <f>SUM(D148:G148)</f>
-        <v>521421.46809479687</v>
+        <v>495986.27452919725</v>
       </c>
       <c r="D148" s="127">
         <f>D71-D15</f>
@@ -20432,25 +20433,25 @@
       </c>
       <c r="E148" s="127">
         <f>E71-E15</f>
-        <v>97501.575334799476</v>
+        <v>89023.177479599603</v>
       </c>
       <c r="F148" s="127">
         <f>F71-F15</f>
-        <v>190763.95174199902</v>
+        <v>182285.55388679914</v>
       </c>
       <c r="G148" s="127">
         <f>G71-G15</f>
-        <v>233155.94101799838</v>
+        <v>224677.54316279851</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="92" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="366" t="s">
         <v>444</v>
       </c>
-      <c r="B149" s="325"/>
+      <c r="B149" s="337"/>
       <c r="C149" s="128">
         <f>SUM(D149:G149)</f>
-        <v>521421.46809479687</v>
+        <v>495986.27452919725</v>
       </c>
       <c r="D149" s="128">
         <f>D74-D18</f>
@@ -20458,38 +20459,38 @@
       </c>
       <c r="E149" s="128">
         <f>E74-E18</f>
-        <v>97501.575334799476</v>
+        <v>89023.177479599603</v>
       </c>
       <c r="F149" s="128">
         <f>F74-F18</f>
-        <v>190763.95174199902</v>
+        <v>182285.55388679914</v>
       </c>
       <c r="G149" s="128">
         <f>G74-G18</f>
-        <v>233155.94101799838</v>
+        <v>224677.54316279851</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="365" t="s">
+      <c r="A150" s="367" t="s">
         <v>445</v>
       </c>
-      <c r="B150" s="324"/>
-      <c r="C150" s="324"/>
-      <c r="D150" s="324"/>
-      <c r="E150" s="324"/>
-      <c r="F150" s="324"/>
-      <c r="G150" s="325"/>
+      <c r="B150" s="326"/>
+      <c r="C150" s="326"/>
+      <c r="D150" s="326"/>
+      <c r="E150" s="326"/>
+      <c r="F150" s="326"/>
+      <c r="G150" s="337"/>
     </row>
     <row r="151" spans="1:7" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="366" t="s">
         <v>446</v>
       </c>
-      <c r="B151" s="324"/>
-      <c r="C151" s="324"/>
-      <c r="D151" s="324"/>
-      <c r="E151" s="324"/>
-      <c r="F151" s="324"/>
-      <c r="G151" s="325"/>
+      <c r="B151" s="326"/>
+      <c r="C151" s="326"/>
+      <c r="D151" s="326"/>
+      <c r="E151" s="326"/>
+      <c r="F151" s="326"/>
+      <c r="G151" s="337"/>
     </row>
     <row r="152" spans="1:7" s="90" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
@@ -20882,7 +20883,7 @@
       </c>
       <c r="C166" s="128">
         <f t="shared" si="3"/>
-        <v>472843.36004519742</v>
+        <v>447408.1664795978</v>
       </c>
       <c r="D166" s="128">
         <f t="shared" si="7"/>
@@ -20890,15 +20891,15 @@
       </c>
       <c r="E166" s="128">
         <f t="shared" si="7"/>
-        <v>89405.223993199877</v>
+        <v>80926.826138000004</v>
       </c>
       <c r="F166" s="128">
         <f t="shared" si="7"/>
-        <v>174571.24905879935</v>
+        <v>166092.85120359948</v>
       </c>
       <c r="G166" s="128">
         <f t="shared" si="7"/>
-        <v>208866.88699319819</v>
+        <v>200388.48913799832</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -20910,7 +20911,7 @@
       </c>
       <c r="C167" s="128">
         <f t="shared" si="3"/>
-        <v>86438.823265199841</v>
+        <v>82377.7419395998</v>
       </c>
       <c r="D167" s="127">
         <f t="shared" si="7"/>
@@ -20918,15 +20919,15 @@
       </c>
       <c r="E167" s="127">
         <f t="shared" si="7"/>
-        <v>16098.587763200048</v>
+        <v>14744.893987999996</v>
       </c>
       <c r="F167" s="127">
         <f t="shared" si="7"/>
-        <v>31520.328638800012</v>
+        <v>30166.63486359996</v>
       </c>
       <c r="G167" s="127">
         <f t="shared" si="7"/>
-        <v>38819.90686319978</v>
+        <v>37466.213087999844</v>
       </c>
       <c r="H167" s="93"/>
       <c r="I167" s="93"/>
@@ -20978,7 +20979,7 @@
       </c>
       <c r="C169" s="128">
         <f t="shared" si="3"/>
-        <v>-16329.821751360025</v>
+        <v>-16543.56287376002</v>
       </c>
       <c r="D169" s="127">
         <f t="shared" si="7"/>
@@ -20986,15 +20987,15 @@
       </c>
       <c r="E169" s="127">
         <f t="shared" si="7"/>
-        <v>-6016.8125955599971</v>
+        <v>-6088.059636359998</v>
       </c>
       <c r="F169" s="127">
         <f t="shared" si="7"/>
-        <v>-5300.7798355200139</v>
+        <v>-5372.0268763200074</v>
       </c>
       <c r="G169" s="127">
         <f t="shared" si="7"/>
-        <v>-5012.2293202800138</v>
+        <v>-5083.4763610800146</v>
       </c>
       <c r="H169" s="93"/>
       <c r="I169" s="93"/>
@@ -21007,10 +21008,10 @@
       <c r="A170" s="366" t="s">
         <v>450</v>
       </c>
-      <c r="B170" s="325"/>
+      <c r="B170" s="337"/>
       <c r="C170" s="128">
         <f t="shared" si="3"/>
-        <v>70109.001513839816</v>
+        <v>65834.179065839795</v>
       </c>
       <c r="D170" s="128">
         <f t="shared" si="7"/>
@@ -21018,25 +21019,25 @@
       </c>
       <c r="E170" s="128">
         <f t="shared" si="7"/>
-        <v>10081.775167640066</v>
+        <v>8656.83435164002</v>
       </c>
       <c r="F170" s="128">
         <f t="shared" si="7"/>
-        <v>26219.548803279991</v>
+        <v>24794.607987279946</v>
       </c>
       <c r="G170" s="128">
         <f t="shared" si="7"/>
-        <v>33807.677542919759</v>
+        <v>32382.736726919829</v>
       </c>
     </row>
     <row r="171" spans="1:13" s="92" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="366" t="s">
         <v>451</v>
       </c>
-      <c r="B171" s="325"/>
+      <c r="B171" s="337"/>
       <c r="C171" s="128">
         <f t="shared" si="3"/>
-        <v>402734.3585313576</v>
+        <v>381573.987413758</v>
       </c>
       <c r="D171" s="128">
         <f t="shared" si="7"/>
@@ -21044,15 +21045,15 @@
       </c>
       <c r="E171" s="128">
         <f t="shared" si="7"/>
-        <v>79323.448825559812</v>
+        <v>72269.991786359984</v>
       </c>
       <c r="F171" s="128">
         <f t="shared" si="7"/>
-        <v>148351.70025551936</v>
+        <v>141298.24321631953</v>
       </c>
       <c r="G171" s="128">
         <f t="shared" si="7"/>
-        <v>175059.20945027843</v>
+        <v>168005.75241107849</v>
       </c>
     </row>
     <row r="172" spans="1:13" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -21329,7 +21330,7 @@
         <f>A127</f>
         <v>ACTIVITATEA DE INVESTITII (inclusiv  reinvestirile din perioada post implementare)</v>
       </c>
-      <c r="B185" s="325"/>
+      <c r="B185" s="337"/>
       <c r="C185" s="305" t="s">
         <v>286</v>
       </c>
@@ -21483,10 +21484,10 @@
       </c>
     </row>
     <row r="191" spans="1:10" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="381" t="s">
+      <c r="A191" s="365" t="s">
         <v>438</v>
       </c>
-      <c r="B191" s="335"/>
+      <c r="B191" s="329"/>
       <c r="C191" s="305" t="s">
         <v>286</v>
       </c>
@@ -21504,8 +21505,8 @@
       </c>
     </row>
     <row r="192" spans="1:10" s="92" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="349"/>
-      <c r="B192" s="350"/>
+      <c r="A192" s="352"/>
+      <c r="B192" s="353"/>
       <c r="C192" s="128">
         <f>SUM(D192:G192)</f>
         <v>0</v>
@@ -21537,10 +21538,10 @@
       <c r="G193" s="129"/>
     </row>
     <row r="194" spans="1:7" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="381" t="s">
+      <c r="A194" s="365" t="s">
         <v>457</v>
       </c>
-      <c r="B194" s="335"/>
+      <c r="B194" s="329"/>
       <c r="C194" s="305" t="s">
         <v>286</v>
       </c>
@@ -21558,11 +21559,11 @@
       </c>
     </row>
     <row r="195" spans="1:7" s="92" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="349"/>
-      <c r="B195" s="350"/>
+      <c r="A195" s="352"/>
+      <c r="B195" s="353"/>
       <c r="C195" s="128">
         <f>SUM(D195:G195)</f>
-        <v>402734.3585313576</v>
+        <v>381573.987413758</v>
       </c>
       <c r="D195" s="128">
         <f>D171+D192</f>
@@ -21570,27 +21571,37 @@
       </c>
       <c r="E195" s="128">
         <f>E171+E192</f>
-        <v>79323.448825559812</v>
+        <v>72269.991786359984</v>
       </c>
       <c r="F195" s="128">
         <f>F171+F192</f>
-        <v>148351.70025551936</v>
+        <v>141298.24321631953</v>
       </c>
       <c r="G195" s="128">
         <f>G171+G192</f>
-        <v>175059.20945027843</v>
+        <v>168005.75241107849</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A194:B195"/>
-    <mergeCell ref="A191:B192"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="D61:G61"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="A137:B137"/>
@@ -21607,24 +21618,14 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="A194:B195"/>
+    <mergeCell ref="A191:B192"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A151:G151"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.47244094488188981" bottom="0.45833333333333331" header="0.31496062992125978" footer="0.31496062992125978"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" blackAndWhite="1" horizontalDpi="300" verticalDpi="300"/>
@@ -21645,7 +21646,7 @@
   <dimension ref="A1:Z89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -21660,7 +21661,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="346" t="s">
         <v>458</v>
       </c>
       <c r="B1" s="317"/>
@@ -21732,9 +21733,9 @@
       <c r="C6" s="390" t="s">
         <v>463</v>
       </c>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="325"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="337"/>
       <c r="G6" s="246"/>
       <c r="H6" s="270"/>
       <c r="I6" s="270"/>
@@ -21768,7 +21769,7 @@
       </c>
       <c r="B8" s="127">
         <f t="shared" ref="B8:B17" si="0">SUM(C8:F8)</f>
-        <v>521421.46809479687</v>
+        <v>495986.27452919725</v>
       </c>
       <c r="C8" s="211">
         <f>'3A-Proiectii_fin_investitie'!D149</f>
@@ -21776,15 +21777,15 @@
       </c>
       <c r="D8" s="211">
         <f>'3A-Proiectii_fin_investitie'!E149</f>
-        <v>97501.575334799476</v>
+        <v>89023.177479599603</v>
       </c>
       <c r="E8" s="211">
         <f>'3A-Proiectii_fin_investitie'!F149</f>
-        <v>190763.95174199902</v>
+        <v>182285.55388679914</v>
       </c>
       <c r="F8" s="211">
         <f>'3A-Proiectii_fin_investitie'!G149</f>
-        <v>233155.94101799838</v>
+        <v>224677.54316279851</v>
       </c>
       <c r="G8" s="209"/>
     </row>
@@ -21810,7 +21811,7 @@
       </c>
       <c r="B10" s="128">
         <f t="shared" si="0"/>
-        <v>521421.46809479687</v>
+        <v>495986.27452919725</v>
       </c>
       <c r="C10" s="213">
         <f>SUM(C8:C9)</f>
@@ -21818,15 +21819,15 @@
       </c>
       <c r="D10" s="213">
         <f>SUM(D8:D9)</f>
-        <v>97501.575334799476</v>
+        <v>89023.177479599603</v>
       </c>
       <c r="E10" s="213">
         <f>SUM(E8:E9)</f>
-        <v>190763.95174199902</v>
+        <v>182285.55388679914</v>
       </c>
       <c r="F10" s="213">
         <f>SUM(F8:F9)</f>
-        <v>233155.94101799838</v>
+        <v>224677.54316279851</v>
       </c>
       <c r="G10" s="214"/>
     </row>
@@ -21888,7 +21889,7 @@
       </c>
       <c r="B13" s="127">
         <f t="shared" si="0"/>
-        <v>19272.283265199847</v>
+        <v>15211.201939599807</v>
       </c>
       <c r="C13" s="127">
         <f>IF($B$4="NU",-'2B-Investitie'!E25+'3A-Proiectii_fin_investitie'!D167-'3A-Proiectii_fin_investitie'!D168,0)</f>
@@ -21896,15 +21897,15 @@
       </c>
       <c r="D13" s="127">
         <f>IF($B$4="NU",-'2B-Investitie'!F25+'3A-Proiectii_fin_investitie'!E167-'3A-Proiectii_fin_investitie'!E168,0)</f>
-        <v>16098.587763200048</v>
+        <v>14744.893987999996</v>
       </c>
       <c r="E13" s="127">
         <f>IF($B$4="NU",-'2B-Investitie'!G25+'3A-Proiectii_fin_investitie'!F167-'3A-Proiectii_fin_investitie'!F168,0)</f>
-        <v>31520.328638800012</v>
+        <v>30166.63486359996</v>
       </c>
       <c r="F13" s="127">
         <f>IF($B$4="NU",-'2B-Investitie'!H25+'3A-Proiectii_fin_investitie'!G167-'3A-Proiectii_fin_investitie'!G168,0)</f>
-        <v>38819.90686319978</v>
+        <v>37466.213087999844</v>
       </c>
       <c r="G13" s="209"/>
     </row>
@@ -21914,7 +21915,7 @@
       </c>
       <c r="B14" s="128">
         <f t="shared" si="0"/>
-        <v>501504.52731479926</v>
+        <v>497443.44598919922</v>
       </c>
       <c r="C14" s="128">
         <f>SUM(C11:C13)</f>
@@ -21922,15 +21923,15 @@
       </c>
       <c r="D14" s="128">
         <f>SUM(D11:D13)</f>
-        <v>23974.860104799642</v>
+        <v>22621.16632959959</v>
       </c>
       <c r="E14" s="128">
         <f>SUM(E11:E13)</f>
-        <v>47272.873321999665</v>
+        <v>45919.179546799613</v>
       </c>
       <c r="F14" s="128">
         <f>SUM(F11:F13)</f>
-        <v>62448.723887999957</v>
+        <v>61095.030112800021</v>
       </c>
       <c r="G14" s="214"/>
     </row>
@@ -21940,7 +21941,7 @@
       </c>
       <c r="B15" s="128">
         <f t="shared" si="0"/>
-        <v>19916.94077999756</v>
+        <v>-1457.1714600020205</v>
       </c>
       <c r="C15" s="128">
         <f>C10-C14</f>
@@ -21948,15 +21949,15 @@
       </c>
       <c r="D15" s="128">
         <f>D10-D14</f>
-        <v>73526.715229999827</v>
+        <v>66402.011150000006</v>
       </c>
       <c r="E15" s="128">
         <f>E10-E14</f>
-        <v>143491.07841999934</v>
+        <v>136366.37433999951</v>
       </c>
       <c r="F15" s="128">
         <f>F10-F14</f>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="G15" s="214"/>
     </row>
@@ -21966,7 +21967,7 @@
       </c>
       <c r="B16" s="128">
         <f t="shared" si="0"/>
-        <v>-12197.733521661343</v>
+        <v>-31208.985835896339</v>
       </c>
       <c r="C16" s="128">
         <f>C15*POWER(1+$B$6,-C7)</f>
@@ -21974,15 +21975,15 @@
       </c>
       <c r="D16" s="128">
         <f>D15*POWER(1+$B$6,-D7)</f>
-        <v>67979.581388683262</v>
+        <v>61392.391965606505</v>
       </c>
       <c r="E16" s="128">
         <f>E15*POWER(1+$B$6,-E7)</f>
-        <v>127563.04621714209</v>
+        <v>121229.21023341444</v>
       </c>
       <c r="F16" s="128">
         <f>F15*POWER(1+$B$6,-F7)</f>
-        <v>145921.24464174404</v>
+        <v>139831.0177343135</v>
       </c>
       <c r="G16" s="216"/>
     </row>
@@ -22018,7 +22019,7 @@
       </c>
       <c r="B18" s="164">
         <f>SUM(C16:F16)</f>
-        <v>-12197.733521661343</v>
+        <v>-31208.985835896339</v>
       </c>
       <c r="C18" s="219"/>
       <c r="D18" s="239"/>
@@ -22038,11 +22039,11 @@
       </c>
       <c r="B19" s="222">
         <f>IFERROR(IRR(C15:F15),"")</f>
-        <v>2.3779212009523931E-2</v>
+        <v>-1.750483003594816E-3</v>
       </c>
       <c r="C19" s="261">
         <f>(IRR(C15:F15))</f>
-        <v>2.3779212009523931E-2</v>
+        <v>-1.750483003594816E-3</v>
       </c>
       <c r="D19" s="239"/>
       <c r="E19" s="220"/>
@@ -22985,13 +22986,13 @@
       <c r="B59" s="390" t="s">
         <v>463</v>
       </c>
-      <c r="C59" s="324"/>
-      <c r="D59" s="324"/>
-      <c r="E59" s="325"/>
+      <c r="C59" s="326"/>
+      <c r="D59" s="326"/>
+      <c r="E59" s="337"/>
       <c r="F59" s="245"/>
     </row>
     <row r="60" spans="1:13" s="94" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="345"/>
+      <c r="A60" s="348"/>
       <c r="B60" s="310">
         <v>1</v>
       </c>
@@ -23019,15 +23020,15 @@
       </c>
       <c r="C61" s="159">
         <f>D15</f>
-        <v>73526.715229999827</v>
+        <v>66402.011150000006</v>
       </c>
       <c r="D61" s="159">
         <f>E15</f>
-        <v>143491.07841999934</v>
+        <v>136366.37433999951</v>
       </c>
       <c r="E61" s="159">
         <f>F15</f>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="F61" s="245"/>
     </row>
@@ -23040,7 +23041,7 @@
       <c r="D62" s="159"/>
       <c r="E62" s="159">
         <f>IF(F8-F14&gt;0,NPV(4%,B69:K69,B73:K73,B77:K77,B81:K81,B85:G85),0)</f>
-        <v>1149328.1412490418</v>
+        <v>1101359.326368884</v>
       </c>
       <c r="F62" s="204"/>
       <c r="G62" s="99"/>
@@ -23056,15 +23057,15 @@
       </c>
       <c r="C63" s="155">
         <f>SUM(C61:C62)</f>
-        <v>73526.715229999827</v>
+        <v>66402.011150000006</v>
       </c>
       <c r="D63" s="155">
         <f>SUM(D61:D62)</f>
-        <v>143491.07841999934</v>
+        <v>136366.37433999951</v>
       </c>
       <c r="E63" s="155">
         <f>SUM(E61:E62)</f>
-        <v>1320035.3583790401</v>
+        <v>1264941.8394188825</v>
       </c>
       <c r="F63" s="100"/>
       <c r="G63" s="101"/>
@@ -23079,9 +23080,9 @@
       <c r="C66" s="387" t="s">
         <v>486</v>
       </c>
-      <c r="D66" s="334"/>
-      <c r="E66" s="334"/>
-      <c r="F66" s="335"/>
+      <c r="D66" s="328"/>
+      <c r="E66" s="328"/>
+      <c r="F66" s="329"/>
       <c r="G66" s="245"/>
       <c r="H66" s="245"/>
       <c r="I66" s="245"/>
@@ -23171,35 +23172,35 @@
       </c>
       <c r="B69" s="159">
         <f t="shared" ref="B69:K69" si="4">N(AND(B68&gt;0,$E$61&gt;0)*$E$61)</f>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="C69" s="159">
         <f t="shared" si="4"/>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="D69" s="159">
         <f t="shared" si="4"/>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="E69" s="159">
         <f t="shared" si="4"/>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="F69" s="159">
         <f t="shared" si="4"/>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="G69" s="159">
         <f t="shared" si="4"/>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="H69" s="159">
         <f t="shared" si="4"/>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="I69" s="159">
         <f t="shared" si="4"/>
-        <v>170707.21712999843</v>
+        <v>163582.5130499985</v>
       </c>
       <c r="J69" s="159">
         <f t="shared" si="4"/>
@@ -23231,9 +23232,9 @@
       <c r="B71" s="384" t="s">
         <v>489</v>
       </c>
-      <c r="C71" s="324"/>
-      <c r="D71" s="324"/>
-      <c r="E71" s="325"/>
+      <c r="C71" s="326"/>
+      <c r="D71" s="326"/>
+      <c r="E71" s="337"/>
       <c r="F71" s="268"/>
       <c r="G71" s="268"/>
       <c r="H71" s="268"/>
@@ -23354,9 +23355,9 @@
       <c r="B75" s="384" t="s">
         <v>489</v>
       </c>
-      <c r="C75" s="324"/>
-      <c r="D75" s="324"/>
-      <c r="E75" s="325"/>
+      <c r="C75" s="326"/>
+      <c r="D75" s="326"/>
+      <c r="E75" s="337"/>
       <c r="F75" s="268"/>
       <c r="G75" s="268"/>
       <c r="H75" s="268"/>
@@ -23478,9 +23479,9 @@
       <c r="B79" s="384" t="s">
         <v>489</v>
       </c>
-      <c r="C79" s="324"/>
-      <c r="D79" s="324"/>
-      <c r="E79" s="325"/>
+      <c r="C79" s="326"/>
+      <c r="D79" s="326"/>
+      <c r="E79" s="337"/>
       <c r="F79" s="268"/>
       <c r="G79" s="268"/>
       <c r="H79" s="268"/>
@@ -23604,9 +23605,9 @@
       <c r="B83" s="384" t="s">
         <v>489</v>
       </c>
-      <c r="C83" s="324"/>
-      <c r="D83" s="324"/>
-      <c r="E83" s="325"/>
+      <c r="C83" s="326"/>
+      <c r="D83" s="326"/>
+      <c r="E83" s="337"/>
       <c r="F83" s="268"/>
       <c r="G83" s="268"/>
       <c r="H83" s="205"/>
